--- a/data/finance/dsg_deficit_derived.xlsx
+++ b/data/finance/dsg_deficit_derived.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">deficit</t>
   </si>
   <si>
-    <t xml:space="preserve">DSG cumulative balance as a % of the total budget</t>
+    <t xml:space="preserve">DSG cumulative balance as a % of the total income</t>
   </si>
   <si>
     <t xml:space="preserve">financial_year</t>
@@ -218,6 +218,9 @@
     <t xml:space="preserve">Liverpool</t>
   </si>
   <si>
+    <t xml:space="preserve">St. Helens</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sefton</t>
   </si>
   <si>
@@ -320,6 +323,9 @@
     <t xml:space="preserve">Stockton-on-Tees</t>
   </si>
   <si>
+    <t xml:space="preserve">Kingston upon Hull, City of</t>
+  </si>
+  <si>
     <t xml:space="preserve">East Riding of Yorkshire</t>
   </si>
   <si>
@@ -338,6 +344,9 @@
     <t xml:space="preserve">Luton</t>
   </si>
   <si>
+    <t xml:space="preserve">Bedford</t>
+  </si>
+  <si>
     <t xml:space="preserve">Central Bedfordshire</t>
   </si>
   <si>
@@ -531,15 +540,6 @@
   </si>
   <si>
     <t xml:space="preserve">West Sussex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Helens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kingston upon Hull, City of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bedford</t>
   </si>
   <si>
     <t xml:space="preserve">North Northamptonshire</t>
@@ -2478,10 +2478,10 @@
         <v>68</v>
       </c>
       <c r="E70" t="n">
-        <v>2.13</v>
+        <v>-0.13</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.13</v>
+        <v>0.13</v>
       </c>
       <c r="G70" t="s">
         <v>11</v>
@@ -2501,10 +2501,10 @@
         <v>69</v>
       </c>
       <c r="E71" t="n">
-        <v>0.48</v>
+        <v>2.13</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.48</v>
+        <v>-2.13</v>
       </c>
       <c r="G71" t="s">
         <v>11</v>
@@ -2524,10 +2524,10 @@
         <v>70</v>
       </c>
       <c r="E72" t="n">
-        <v>1.91</v>
+        <v>0.48</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.91</v>
+        <v>-0.48</v>
       </c>
       <c r="G72" t="s">
         <v>11</v>
@@ -2547,10 +2547,10 @@
         <v>71</v>
       </c>
       <c r="E73" t="n">
-        <v>11.97</v>
+        <v>1.91</v>
       </c>
       <c r="F73" t="n">
-        <v>-11.97</v>
+        <v>-1.91</v>
       </c>
       <c r="G73" t="s">
         <v>11</v>
@@ -2570,10 +2570,10 @@
         <v>72</v>
       </c>
       <c r="E74" t="n">
-        <v>0.81</v>
+        <v>11.97</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.81</v>
+        <v>-11.97</v>
       </c>
       <c r="G74" t="s">
         <v>11</v>
@@ -2593,10 +2593,10 @@
         <v>73</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>0.81</v>
       </c>
       <c r="F75" t="n">
-        <v>-2</v>
+        <v>-0.81</v>
       </c>
       <c r="G75" t="s">
         <v>11</v>
@@ -2616,10 +2616,10 @@
         <v>74</v>
       </c>
       <c r="E76" t="n">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="G76" t="s">
         <v>11</v>
@@ -2639,10 +2639,10 @@
         <v>75</v>
       </c>
       <c r="E77" t="n">
-        <v>7.65</v>
+        <v>0.25</v>
       </c>
       <c r="F77" t="n">
-        <v>-7.65</v>
+        <v>-0.25</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
@@ -2662,10 +2662,10 @@
         <v>76</v>
       </c>
       <c r="E78" t="n">
-        <v>0.58</v>
+        <v>7.65</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.58</v>
+        <v>-7.65</v>
       </c>
       <c r="G78" t="s">
         <v>11</v>
@@ -2685,10 +2685,10 @@
         <v>77</v>
       </c>
       <c r="E79" t="n">
-        <v>0.28</v>
+        <v>0.58</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.28</v>
+        <v>-0.58</v>
       </c>
       <c r="G79" t="s">
         <v>11</v>
@@ -2708,10 +2708,10 @@
         <v>78</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.39</v>
+        <v>0.28</v>
       </c>
       <c r="F80" t="n">
-        <v>1.39</v>
+        <v>-0.28</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
@@ -2731,10 +2731,10 @@
         <v>79</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.11</v>
+        <v>-1.39</v>
       </c>
       <c r="F81" t="n">
-        <v>0.11</v>
+        <v>1.39</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
@@ -2748,16 +2748,16 @@
         <v>25</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s">
         <v>80</v>
       </c>
       <c r="E82" t="n">
-        <v>2.77</v>
+        <v>-0.11</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.77</v>
+        <v>0.11</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
@@ -2777,10 +2777,10 @@
         <v>81</v>
       </c>
       <c r="E83" t="n">
-        <v>2.1</v>
+        <v>2.77</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.1</v>
+        <v>-2.77</v>
       </c>
       <c r="G83" t="s">
         <v>11</v>
@@ -2800,10 +2800,10 @@
         <v>82</v>
       </c>
       <c r="E84" t="n">
-        <v>8.29</v>
+        <v>2.1</v>
       </c>
       <c r="F84" t="n">
-        <v>-8.29</v>
+        <v>-2.1</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
@@ -2823,10 +2823,10 @@
         <v>83</v>
       </c>
       <c r="E85" t="n">
-        <v>-2.66</v>
+        <v>8.29</v>
       </c>
       <c r="F85" t="n">
-        <v>2.66</v>
+        <v>-8.29</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
@@ -2846,10 +2846,10 @@
         <v>84</v>
       </c>
       <c r="E86" t="n">
-        <v>-4.1</v>
+        <v>-2.66</v>
       </c>
       <c r="F86" t="n">
-        <v>4.1</v>
+        <v>2.66</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
@@ -2869,10 +2869,10 @@
         <v>85</v>
       </c>
       <c r="E87" t="n">
-        <v>-1.73</v>
+        <v>-4.1</v>
       </c>
       <c r="F87" t="n">
-        <v>1.73</v>
+        <v>4.1</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
@@ -2892,10 +2892,10 @@
         <v>86</v>
       </c>
       <c r="E88" t="n">
-        <v>3.97</v>
+        <v>-1.73</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.97</v>
+        <v>1.73</v>
       </c>
       <c r="G88" t="s">
         <v>11</v>
@@ -2915,10 +2915,10 @@
         <v>87</v>
       </c>
       <c r="E89" t="n">
-        <v>0.49</v>
+        <v>3.97</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.49</v>
+        <v>-3.97</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
@@ -2938,10 +2938,10 @@
         <v>88</v>
       </c>
       <c r="E90" t="n">
-        <v>0.01</v>
+        <v>0.49</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.01</v>
+        <v>-0.49</v>
       </c>
       <c r="G90" t="s">
         <v>11</v>
@@ -2955,16 +2955,16 @@
         <v>25</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D91" t="s">
         <v>89</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.82</v>
+        <v>0.01</v>
       </c>
       <c r="F91" t="n">
-        <v>0.82</v>
+        <v>-0.01</v>
       </c>
       <c r="G91" t="s">
         <v>11</v>
@@ -2984,10 +2984,10 @@
         <v>90</v>
       </c>
       <c r="E92" t="n">
-        <v>-4.2</v>
+        <v>-0.82</v>
       </c>
       <c r="F92" t="n">
-        <v>4.2</v>
+        <v>0.82</v>
       </c>
       <c r="G92" t="s">
         <v>11</v>
@@ -3007,10 +3007,10 @@
         <v>91</v>
       </c>
       <c r="E93" t="n">
-        <v>2.08</v>
+        <v>-4.2</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.08</v>
+        <v>4.2</v>
       </c>
       <c r="G93" t="s">
         <v>11</v>
@@ -3030,10 +3030,10 @@
         <v>92</v>
       </c>
       <c r="E94" t="n">
-        <v>1.65</v>
+        <v>2.08</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.65</v>
+        <v>-2.08</v>
       </c>
       <c r="G94" t="s">
         <v>11</v>
@@ -3053,10 +3053,10 @@
         <v>93</v>
       </c>
       <c r="E95" t="n">
-        <v>0.12</v>
+        <v>1.65</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.12</v>
+        <v>-1.65</v>
       </c>
       <c r="G95" t="s">
         <v>11</v>
@@ -3070,16 +3070,16 @@
         <v>25</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D96" t="s">
         <v>94</v>
       </c>
       <c r="E96" t="n">
-        <v>0.89</v>
+        <v>0.12</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.89</v>
+        <v>-0.12</v>
       </c>
       <c r="G96" t="s">
         <v>11</v>
@@ -3099,10 +3099,10 @@
         <v>95</v>
       </c>
       <c r="E97" t="n">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.8</v>
+        <v>-0.89</v>
       </c>
       <c r="G97" t="s">
         <v>11</v>
@@ -3122,10 +3122,10 @@
         <v>96</v>
       </c>
       <c r="E98" t="n">
-        <v>2.41</v>
+        <v>0.8</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.41</v>
+        <v>-0.8</v>
       </c>
       <c r="G98" t="s">
         <v>11</v>
@@ -3145,10 +3145,10 @@
         <v>97</v>
       </c>
       <c r="E99" t="n">
-        <v>7.86</v>
+        <v>2.41</v>
       </c>
       <c r="F99" t="n">
-        <v>-7.86</v>
+        <v>-2.41</v>
       </c>
       <c r="G99" t="s">
         <v>11</v>
@@ -3162,16 +3162,16 @@
         <v>25</v>
       </c>
       <c r="C100" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
         <v>98</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.33</v>
+        <v>7.86</v>
       </c>
       <c r="F100" t="n">
-        <v>0.33</v>
+        <v>-7.86</v>
       </c>
       <c r="G100" t="s">
         <v>11</v>
@@ -3191,10 +3191,10 @@
         <v>99</v>
       </c>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>-0.33</v>
       </c>
       <c r="F101" t="n">
-        <v>-2</v>
+        <v>0.33</v>
       </c>
       <c r="G101" t="s">
         <v>11</v>
@@ -3214,10 +3214,10 @@
         <v>100</v>
       </c>
       <c r="E102" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.88</v>
+        <v>-2</v>
       </c>
       <c r="G102" t="s">
         <v>11</v>
@@ -3237,10 +3237,10 @@
         <v>101</v>
       </c>
       <c r="E103" t="n">
-        <v>2.66</v>
+        <v>1.88</v>
       </c>
       <c r="F103" t="n">
-        <v>-2.66</v>
+        <v>-1.88</v>
       </c>
       <c r="G103" t="s">
         <v>11</v>
@@ -3254,16 +3254,16 @@
         <v>25</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D104" t="s">
         <v>102</v>
       </c>
       <c r="E104" t="n">
-        <v>1.46</v>
+        <v>2.66</v>
       </c>
       <c r="F104" t="n">
-        <v>-1.46</v>
+        <v>-2.66</v>
       </c>
       <c r="G104" t="s">
         <v>11</v>
@@ -3283,10 +3283,10 @@
         <v>103</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.04</v>
+        <v>1.58</v>
       </c>
       <c r="F105" t="n">
-        <v>0.04</v>
+        <v>-1.58</v>
       </c>
       <c r="G105" t="s">
         <v>11</v>
@@ -3306,10 +3306,10 @@
         <v>104</v>
       </c>
       <c r="E106" t="n">
-        <v>-1.32</v>
+        <v>1.46</v>
       </c>
       <c r="F106" t="n">
-        <v>1.32</v>
+        <v>-1.46</v>
       </c>
       <c r="G106" t="s">
         <v>11</v>
@@ -3329,10 +3329,10 @@
         <v>105</v>
       </c>
       <c r="E107" t="n">
-        <v>0.36</v>
+        <v>-0.04</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.36</v>
+        <v>0.04</v>
       </c>
       <c r="G107" t="s">
         <v>11</v>
@@ -3352,10 +3352,10 @@
         <v>106</v>
       </c>
       <c r="E108" t="n">
-        <v>3.68</v>
+        <v>-1.32</v>
       </c>
       <c r="F108" t="n">
-        <v>-3.68</v>
+        <v>1.32</v>
       </c>
       <c r="G108" t="s">
         <v>11</v>
@@ -3369,16 +3369,16 @@
         <v>25</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D109" t="s">
         <v>107</v>
       </c>
       <c r="E109" t="n">
-        <v>-1.18</v>
+        <v>0.36</v>
       </c>
       <c r="F109" t="n">
-        <v>1.18</v>
+        <v>-0.36</v>
       </c>
       <c r="G109" t="s">
         <v>11</v>
@@ -3392,16 +3392,16 @@
         <v>25</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D110" t="s">
         <v>108</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.94</v>
+        <v>3.68</v>
       </c>
       <c r="F110" t="n">
-        <v>0.94</v>
+        <v>-3.68</v>
       </c>
       <c r="G110" t="s">
         <v>11</v>
@@ -3415,16 +3415,16 @@
         <v>25</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D111" t="s">
         <v>109</v>
       </c>
       <c r="E111" t="n">
-        <v>0.26</v>
+        <v>-1.18</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.26</v>
+        <v>1.18</v>
       </c>
       <c r="G111" t="s">
         <v>11</v>
@@ -3438,16 +3438,16 @@
         <v>25</v>
       </c>
       <c r="C112" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D112" t="s">
         <v>110</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.86</v>
+        <v>-1.68</v>
       </c>
       <c r="F112" t="n">
-        <v>0.86</v>
+        <v>1.68</v>
       </c>
       <c r="G112" t="s">
         <v>11</v>
@@ -3461,16 +3461,16 @@
         <v>25</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D113" t="s">
         <v>111</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.03</v>
+        <v>-0.94</v>
       </c>
       <c r="F113" t="n">
-        <v>0.03</v>
+        <v>0.94</v>
       </c>
       <c r="G113" t="s">
         <v>11</v>
@@ -3484,16 +3484,16 @@
         <v>25</v>
       </c>
       <c r="C114" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D114" t="s">
         <v>112</v>
       </c>
       <c r="E114" t="n">
-        <v>-1.1</v>
+        <v>0.26</v>
       </c>
       <c r="F114" t="n">
-        <v>1.1</v>
+        <v>-0.26</v>
       </c>
       <c r="G114" t="s">
         <v>11</v>
@@ -3507,16 +3507,16 @@
         <v>25</v>
       </c>
       <c r="C115" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D115" t="s">
         <v>113</v>
       </c>
       <c r="E115" t="n">
-        <v>8.82</v>
+        <v>-0.86</v>
       </c>
       <c r="F115" t="n">
-        <v>-8.82</v>
+        <v>0.86</v>
       </c>
       <c r="G115" t="s">
         <v>11</v>
@@ -3530,16 +3530,16 @@
         <v>25</v>
       </c>
       <c r="C116" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D116" t="s">
         <v>114</v>
       </c>
       <c r="E116" t="n">
-        <v>1.79</v>
+        <v>-0.03</v>
       </c>
       <c r="F116" t="n">
-        <v>-1.79</v>
+        <v>0.03</v>
       </c>
       <c r="G116" t="s">
         <v>11</v>
@@ -3553,16 +3553,16 @@
         <v>25</v>
       </c>
       <c r="C117" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D117" t="s">
         <v>115</v>
       </c>
       <c r="E117" t="n">
-        <v>0.97</v>
+        <v>-1.1</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.97</v>
+        <v>1.1</v>
       </c>
       <c r="G117" t="s">
         <v>11</v>
@@ -3576,16 +3576,16 @@
         <v>25</v>
       </c>
       <c r="C118" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D118" t="s">
         <v>116</v>
       </c>
       <c r="E118" t="n">
-        <v>5.17</v>
+        <v>8.82</v>
       </c>
       <c r="F118" t="n">
-        <v>-5.17</v>
+        <v>-8.82</v>
       </c>
       <c r="G118" t="s">
         <v>11</v>
@@ -3599,16 +3599,16 @@
         <v>25</v>
       </c>
       <c r="C119" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D119" t="s">
         <v>117</v>
       </c>
       <c r="E119" t="n">
-        <v>-1.69</v>
+        <v>1.79</v>
       </c>
       <c r="F119" t="n">
-        <v>1.69</v>
+        <v>-1.79</v>
       </c>
       <c r="G119" t="s">
         <v>11</v>
@@ -3622,16 +3622,16 @@
         <v>25</v>
       </c>
       <c r="C120" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D120" t="s">
         <v>118</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.4</v>
+        <v>0.97</v>
       </c>
       <c r="F120" t="n">
-        <v>0.4</v>
+        <v>-0.97</v>
       </c>
       <c r="G120" t="s">
         <v>11</v>
@@ -3645,16 +3645,16 @@
         <v>25</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D121" t="s">
         <v>119</v>
       </c>
       <c r="E121" t="n">
-        <v>2.38</v>
+        <v>5.17</v>
       </c>
       <c r="F121" t="n">
-        <v>-2.38</v>
+        <v>-5.17</v>
       </c>
       <c r="G121" t="s">
         <v>11</v>
@@ -3674,10 +3674,10 @@
         <v>120</v>
       </c>
       <c r="E122" t="n">
-        <v>-2.05</v>
+        <v>-1.69</v>
       </c>
       <c r="F122" t="n">
-        <v>2.05</v>
+        <v>1.69</v>
       </c>
       <c r="G122" t="s">
         <v>11</v>
@@ -3697,10 +3697,10 @@
         <v>121</v>
       </c>
       <c r="E123" t="n">
-        <v>3.98</v>
+        <v>-0.4</v>
       </c>
       <c r="F123" t="n">
-        <v>-3.98</v>
+        <v>0.4</v>
       </c>
       <c r="G123" t="s">
         <v>11</v>
@@ -3714,16 +3714,16 @@
         <v>25</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D124" t="s">
         <v>122</v>
       </c>
       <c r="E124" t="n">
-        <v>0.81</v>
+        <v>2.38</v>
       </c>
       <c r="F124" t="n">
-        <v>-0.81</v>
+        <v>-2.38</v>
       </c>
       <c r="G124" t="s">
         <v>11</v>
@@ -3737,16 +3737,16 @@
         <v>25</v>
       </c>
       <c r="C125" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D125" t="s">
         <v>123</v>
       </c>
       <c r="E125" t="n">
-        <v>-1.72</v>
+        <v>-2.05</v>
       </c>
       <c r="F125" t="n">
-        <v>1.72</v>
+        <v>2.05</v>
       </c>
       <c r="G125" t="s">
         <v>11</v>
@@ -3760,16 +3760,16 @@
         <v>25</v>
       </c>
       <c r="C126" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D126" t="s">
         <v>124</v>
       </c>
       <c r="E126" t="n">
-        <v>0.91</v>
+        <v>3.98</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.91</v>
+        <v>-3.98</v>
       </c>
       <c r="G126" t="s">
         <v>11</v>
@@ -3783,16 +3783,16 @@
         <v>25</v>
       </c>
       <c r="C127" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D127" t="s">
         <v>125</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.07</v>
+        <v>0.81</v>
       </c>
       <c r="F127" t="n">
-        <v>0.07</v>
+        <v>-0.81</v>
       </c>
       <c r="G127" t="s">
         <v>11</v>
@@ -3806,16 +3806,16 @@
         <v>25</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D128" t="s">
         <v>126</v>
       </c>
       <c r="E128" t="n">
-        <v>9.44</v>
+        <v>-1.72</v>
       </c>
       <c r="F128" t="n">
-        <v>-9.44</v>
+        <v>1.72</v>
       </c>
       <c r="G128" t="s">
         <v>11</v>
@@ -3829,16 +3829,16 @@
         <v>25</v>
       </c>
       <c r="C129" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D129" t="s">
         <v>127</v>
       </c>
       <c r="E129" t="n">
-        <v>2.58</v>
+        <v>0.91</v>
       </c>
       <c r="F129" t="n">
-        <v>-2.58</v>
+        <v>-0.91</v>
       </c>
       <c r="G129" t="s">
         <v>11</v>
@@ -3852,16 +3852,16 @@
         <v>25</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D130" t="s">
         <v>128</v>
       </c>
       <c r="E130" t="n">
-        <v>0.91</v>
+        <v>-0.07</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.91</v>
+        <v>0.07</v>
       </c>
       <c r="G130" t="s">
         <v>11</v>
@@ -3875,16 +3875,16 @@
         <v>25</v>
       </c>
       <c r="C131" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D131" t="s">
         <v>129</v>
       </c>
       <c r="E131" t="n">
-        <v>-1.94</v>
+        <v>9.44</v>
       </c>
       <c r="F131" t="n">
-        <v>1.94</v>
+        <v>-9.44</v>
       </c>
       <c r="G131" t="s">
         <v>11</v>
@@ -3898,16 +3898,16 @@
         <v>25</v>
       </c>
       <c r="C132" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D132" t="s">
         <v>130</v>
       </c>
       <c r="E132" t="n">
-        <v>0.88</v>
+        <v>2.58</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.88</v>
+        <v>-2.58</v>
       </c>
       <c r="G132" t="s">
         <v>11</v>
@@ -3921,16 +3921,16 @@
         <v>25</v>
       </c>
       <c r="C133" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D133" t="s">
         <v>131</v>
       </c>
       <c r="E133" t="n">
-        <v>1.29</v>
+        <v>0.91</v>
       </c>
       <c r="F133" t="n">
-        <v>-1.29</v>
+        <v>-0.91</v>
       </c>
       <c r="G133" t="s">
         <v>11</v>
@@ -3950,10 +3950,10 @@
         <v>132</v>
       </c>
       <c r="E134" t="n">
-        <v>1.43</v>
+        <v>-1.94</v>
       </c>
       <c r="F134" t="n">
-        <v>-1.43</v>
+        <v>1.94</v>
       </c>
       <c r="G134" t="s">
         <v>11</v>
@@ -3973,10 +3973,10 @@
         <v>133</v>
       </c>
       <c r="E135" t="n">
-        <v>7.22</v>
+        <v>0.88</v>
       </c>
       <c r="F135" t="n">
-        <v>-7.22</v>
+        <v>-0.88</v>
       </c>
       <c r="G135" t="s">
         <v>11</v>
@@ -3996,10 +3996,10 @@
         <v>134</v>
       </c>
       <c r="E136" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="F136" t="n">
-        <v>-1.32</v>
+        <v>-1.29</v>
       </c>
       <c r="G136" t="s">
         <v>11</v>
@@ -4013,16 +4013,16 @@
         <v>25</v>
       </c>
       <c r="C137" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D137" t="s">
         <v>135</v>
       </c>
       <c r="E137" t="n">
-        <v>3.59</v>
+        <v>1.43</v>
       </c>
       <c r="F137" t="n">
-        <v>-3.59</v>
+        <v>-1.43</v>
       </c>
       <c r="G137" t="s">
         <v>11</v>
@@ -4036,16 +4036,16 @@
         <v>25</v>
       </c>
       <c r="C138" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D138" t="s">
         <v>136</v>
       </c>
       <c r="E138" t="n">
-        <v>-1.61</v>
+        <v>7.22</v>
       </c>
       <c r="F138" t="n">
-        <v>1.61</v>
+        <v>-7.22</v>
       </c>
       <c r="G138" t="s">
         <v>11</v>
@@ -4059,16 +4059,16 @@
         <v>25</v>
       </c>
       <c r="C139" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D139" t="s">
         <v>137</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.12</v>
+        <v>1.32</v>
       </c>
       <c r="F139" t="n">
-        <v>0.12</v>
+        <v>-1.32</v>
       </c>
       <c r="G139" t="s">
         <v>11</v>
@@ -4082,16 +4082,16 @@
         <v>25</v>
       </c>
       <c r="C140" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D140" t="s">
         <v>138</v>
       </c>
       <c r="E140" t="n">
-        <v>0.43</v>
+        <v>3.59</v>
       </c>
       <c r="F140" t="n">
-        <v>-0.43</v>
+        <v>-3.59</v>
       </c>
       <c r="G140" t="s">
         <v>11</v>
@@ -4105,16 +4105,16 @@
         <v>25</v>
       </c>
       <c r="C141" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D141" t="s">
         <v>139</v>
       </c>
       <c r="E141" t="n">
-        <v>3.15</v>
+        <v>-1.61</v>
       </c>
       <c r="F141" t="n">
-        <v>-3.15</v>
+        <v>1.61</v>
       </c>
       <c r="G141" t="s">
         <v>11</v>
@@ -4128,16 +4128,16 @@
         <v>25</v>
       </c>
       <c r="C142" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D142" t="s">
         <v>140</v>
       </c>
       <c r="E142" t="n">
-        <v>0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="F142" t="n">
-        <v>-0.1</v>
+        <v>0.12</v>
       </c>
       <c r="G142" t="s">
         <v>11</v>
@@ -4151,16 +4151,16 @@
         <v>25</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D143" t="s">
         <v>141</v>
       </c>
       <c r="E143" t="n">
-        <v>3.63</v>
+        <v>0.43</v>
       </c>
       <c r="F143" t="n">
-        <v>-3.63</v>
+        <v>-0.43</v>
       </c>
       <c r="G143" t="s">
         <v>11</v>
@@ -4174,16 +4174,16 @@
         <v>25</v>
       </c>
       <c r="C144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D144" t="s">
         <v>142</v>
       </c>
       <c r="E144" t="n">
-        <v>0.49</v>
+        <v>3.15</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.49</v>
+        <v>-3.15</v>
       </c>
       <c r="G144" t="s">
         <v>11</v>
@@ -4197,16 +4197,16 @@
         <v>25</v>
       </c>
       <c r="C145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D145" t="s">
         <v>143</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.83</v>
+        <v>0.1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.83</v>
+        <v>-0.1</v>
       </c>
       <c r="G145" t="s">
         <v>11</v>
@@ -4220,16 +4220,16 @@
         <v>25</v>
       </c>
       <c r="C146" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D146" t="s">
         <v>144</v>
       </c>
       <c r="E146" t="n">
-        <v>1.26</v>
+        <v>3.63</v>
       </c>
       <c r="F146" t="n">
-        <v>-1.26</v>
+        <v>-3.63</v>
       </c>
       <c r="G146" t="s">
         <v>11</v>
@@ -4243,16 +4243,16 @@
         <v>25</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D147" t="s">
         <v>145</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.85</v>
+        <v>0.49</v>
       </c>
       <c r="F147" t="n">
-        <v>0.85</v>
+        <v>-0.49</v>
       </c>
       <c r="G147" t="s">
         <v>11</v>
@@ -4266,16 +4266,16 @@
         <v>25</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D148" t="s">
         <v>146</v>
       </c>
       <c r="E148" t="n">
-        <v>1.5</v>
+        <v>-0.83</v>
       </c>
       <c r="F148" t="n">
-        <v>-1.5</v>
+        <v>0.83</v>
       </c>
       <c r="G148" t="s">
         <v>11</v>
@@ -4289,16 +4289,16 @@
         <v>25</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D149" t="s">
         <v>147</v>
       </c>
       <c r="E149" t="n">
-        <v>1.76</v>
+        <v>1.26</v>
       </c>
       <c r="F149" t="n">
-        <v>-1.76</v>
+        <v>-1.26</v>
       </c>
       <c r="G149" t="s">
         <v>11</v>
@@ -4312,16 +4312,16 @@
         <v>25</v>
       </c>
       <c r="C150" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D150" t="s">
         <v>148</v>
       </c>
       <c r="E150" t="n">
-        <v>3.96</v>
+        <v>-0.85</v>
       </c>
       <c r="F150" t="n">
-        <v>-3.96</v>
+        <v>0.85</v>
       </c>
       <c r="G150" t="s">
         <v>11</v>
@@ -4335,16 +4335,16 @@
         <v>25</v>
       </c>
       <c r="C151" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D151" t="s">
         <v>149</v>
       </c>
       <c r="E151" t="n">
-        <v>-1.17</v>
+        <v>1.5</v>
       </c>
       <c r="F151" t="n">
-        <v>1.17</v>
+        <v>-1.5</v>
       </c>
       <c r="G151" t="s">
         <v>11</v>
@@ -4358,16 +4358,16 @@
         <v>25</v>
       </c>
       <c r="C152" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D152" t="s">
         <v>150</v>
       </c>
       <c r="E152" t="n">
-        <v>-2.45</v>
+        <v>1.76</v>
       </c>
       <c r="F152" t="n">
-        <v>2.45</v>
+        <v>-1.76</v>
       </c>
       <c r="G152" t="s">
         <v>11</v>
@@ -4381,16 +4381,16 @@
         <v>25</v>
       </c>
       <c r="C153" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D153" t="s">
         <v>151</v>
       </c>
       <c r="E153" t="n">
-        <v>2.76</v>
+        <v>3.96</v>
       </c>
       <c r="F153" t="n">
-        <v>-2.76</v>
+        <v>-3.96</v>
       </c>
       <c r="G153" t="s">
         <v>11</v>
@@ -4404,16 +4404,16 @@
         <v>25</v>
       </c>
       <c r="C154" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D154" t="s">
         <v>152</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.94</v>
+        <v>-1.17</v>
       </c>
       <c r="F154" t="n">
-        <v>0.94</v>
+        <v>1.17</v>
       </c>
       <c r="G154" t="s">
         <v>11</v>
@@ -4427,16 +4427,16 @@
         <v>25</v>
       </c>
       <c r="C155" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D155" t="s">
         <v>153</v>
       </c>
       <c r="E155" t="n">
-        <v>-2.54</v>
+        <v>-2.45</v>
       </c>
       <c r="F155" t="n">
-        <v>2.54</v>
+        <v>2.45</v>
       </c>
       <c r="G155" t="s">
         <v>11</v>
@@ -4450,16 +4450,16 @@
         <v>25</v>
       </c>
       <c r="C156" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D156" t="s">
         <v>154</v>
       </c>
       <c r="E156" t="n">
-        <v>1.1</v>
+        <v>2.76</v>
       </c>
       <c r="F156" t="n">
-        <v>-1.1</v>
+        <v>-2.76</v>
       </c>
       <c r="G156" t="s">
         <v>11</v>
@@ -4473,16 +4473,16 @@
         <v>25</v>
       </c>
       <c r="C157" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D157" t="s">
         <v>155</v>
       </c>
       <c r="E157" t="n">
-        <v>-0.08</v>
+        <v>-0.94</v>
       </c>
       <c r="F157" t="n">
-        <v>0.08</v>
+        <v>0.94</v>
       </c>
       <c r="G157" t="s">
         <v>11</v>
@@ -4496,16 +4496,16 @@
         <v>25</v>
       </c>
       <c r="C158" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D158" t="s">
         <v>156</v>
       </c>
       <c r="E158" t="n">
-        <v>0.93</v>
+        <v>-2.54</v>
       </c>
       <c r="F158" t="n">
-        <v>-0.93</v>
+        <v>2.54</v>
       </c>
       <c r="G158" t="s">
         <v>11</v>
@@ -4519,16 +4519,16 @@
         <v>25</v>
       </c>
       <c r="C159" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D159" t="s">
         <v>157</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.38</v>
+        <v>1.1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.38</v>
+        <v>-1.1</v>
       </c>
       <c r="G159" t="s">
         <v>11</v>
@@ -4542,16 +4542,16 @@
         <v>25</v>
       </c>
       <c r="C160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D160" t="s">
         <v>158</v>
       </c>
       <c r="E160" t="n">
-        <v>0.05</v>
+        <v>-0.08</v>
       </c>
       <c r="F160" t="n">
-        <v>-0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G160" t="s">
         <v>11</v>
@@ -4571,10 +4571,10 @@
         <v>159</v>
       </c>
       <c r="E161" t="n">
-        <v>1.94</v>
+        <v>0.93</v>
       </c>
       <c r="F161" t="n">
-        <v>-1.94</v>
+        <v>-0.93</v>
       </c>
       <c r="G161" t="s">
         <v>11</v>
@@ -4588,16 +4588,16 @@
         <v>25</v>
       </c>
       <c r="C162" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D162" t="s">
         <v>160</v>
       </c>
       <c r="E162" t="n">
-        <v>1.48</v>
+        <v>-0.38</v>
       </c>
       <c r="F162" t="n">
-        <v>-1.48</v>
+        <v>0.38</v>
       </c>
       <c r="G162" t="s">
         <v>11</v>
@@ -4611,16 +4611,16 @@
         <v>25</v>
       </c>
       <c r="C163" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D163" t="s">
         <v>161</v>
       </c>
       <c r="E163" t="n">
-        <v>-1.54</v>
+        <v>0.05</v>
       </c>
       <c r="F163" t="n">
-        <v>1.54</v>
+        <v>-0.05</v>
       </c>
       <c r="G163" t="s">
         <v>11</v>
@@ -4634,16 +4634,16 @@
         <v>25</v>
       </c>
       <c r="C164" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D164" t="s">
         <v>162</v>
       </c>
       <c r="E164" t="n">
-        <v>2.67</v>
+        <v>1.94</v>
       </c>
       <c r="F164" t="n">
-        <v>-2.67</v>
+        <v>-1.94</v>
       </c>
       <c r="G164" t="s">
         <v>11</v>
@@ -4657,16 +4657,16 @@
         <v>25</v>
       </c>
       <c r="C165" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D165" t="s">
         <v>163</v>
       </c>
       <c r="E165" t="n">
-        <v>-2.48</v>
+        <v>1.48</v>
       </c>
       <c r="F165" t="n">
-        <v>2.48</v>
+        <v>-1.48</v>
       </c>
       <c r="G165" t="s">
         <v>11</v>
@@ -4686,10 +4686,10 @@
         <v>164</v>
       </c>
       <c r="E166" t="n">
-        <v>3.23</v>
+        <v>-1.54</v>
       </c>
       <c r="F166" t="n">
-        <v>-3.23</v>
+        <v>1.54</v>
       </c>
       <c r="G166" t="s">
         <v>11</v>
@@ -4703,16 +4703,16 @@
         <v>25</v>
       </c>
       <c r="C167" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D167" t="s">
         <v>165</v>
       </c>
       <c r="E167" t="n">
-        <v>0.41</v>
+        <v>2.67</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.41</v>
+        <v>-2.67</v>
       </c>
       <c r="G167" t="s">
         <v>11</v>
@@ -4726,16 +4726,16 @@
         <v>25</v>
       </c>
       <c r="C168" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D168" t="s">
         <v>166</v>
       </c>
       <c r="E168" t="n">
-        <v>0.26</v>
+        <v>-2.48</v>
       </c>
       <c r="F168" t="n">
-        <v>-0.26</v>
+        <v>2.48</v>
       </c>
       <c r="G168" t="s">
         <v>11</v>
@@ -4749,16 +4749,16 @@
         <v>25</v>
       </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D169" t="s">
         <v>167</v>
       </c>
       <c r="E169" t="n">
-        <v>1.69</v>
+        <v>3.23</v>
       </c>
       <c r="F169" t="n">
-        <v>-1.69</v>
+        <v>-3.23</v>
       </c>
       <c r="G169" t="s">
         <v>11</v>
@@ -4772,16 +4772,16 @@
         <v>25</v>
       </c>
       <c r="C170" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D170" t="s">
         <v>168</v>
       </c>
       <c r="E170" t="n">
-        <v>2.89</v>
+        <v>0.41</v>
       </c>
       <c r="F170" t="n">
-        <v>-2.89</v>
+        <v>-0.41</v>
       </c>
       <c r="G170" t="s">
         <v>11</v>
@@ -4795,16 +4795,16 @@
         <v>25</v>
       </c>
       <c r="C171" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D171" t="s">
         <v>169</v>
       </c>
       <c r="E171" t="n">
-        <v>2.49</v>
+        <v>0.26</v>
       </c>
       <c r="F171" t="n">
-        <v>-2.49</v>
+        <v>-0.26</v>
       </c>
       <c r="G171" t="s">
         <v>11</v>
@@ -4824,10 +4824,10 @@
         <v>170</v>
       </c>
       <c r="E172" t="n">
-        <v>3.67</v>
+        <v>1.69</v>
       </c>
       <c r="F172" t="n">
-        <v>-3.67</v>
+        <v>-1.69</v>
       </c>
       <c r="G172" t="s">
         <v>11</v>
@@ -4841,16 +4841,16 @@
         <v>25</v>
       </c>
       <c r="C173" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D173" t="s">
         <v>171</v>
       </c>
       <c r="E173" t="n">
-        <v>0.69</v>
+        <v>2.89</v>
       </c>
       <c r="F173" t="n">
-        <v>-0.69</v>
+        <v>-2.89</v>
       </c>
       <c r="G173" t="s">
         <v>11</v>
@@ -4864,16 +4864,16 @@
         <v>25</v>
       </c>
       <c r="C174" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D174" t="s">
         <v>172</v>
       </c>
       <c r="E174" t="n">
-        <v>0.29</v>
+        <v>2.49</v>
       </c>
       <c r="F174" t="n">
-        <v>-0.29</v>
+        <v>-2.49</v>
       </c>
       <c r="G174" t="s">
         <v>11</v>
@@ -4881,71 +4881,71 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B175" t="s">
         <v>25</v>
       </c>
       <c r="C175" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D175" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="E175" t="n">
-        <v>-4.93</v>
+        <v>3.67</v>
       </c>
       <c r="F175" t="n">
-        <v>4.93</v>
+        <v>-3.67</v>
       </c>
       <c r="G175" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B176" t="s">
         <v>25</v>
       </c>
       <c r="C176" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D176" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="E176" t="n">
-        <v>-2.25</v>
+        <v>0.69</v>
       </c>
       <c r="F176" t="n">
-        <v>2.25</v>
+        <v>-0.69</v>
       </c>
       <c r="G176" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B177" t="s">
         <v>25</v>
       </c>
       <c r="C177" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D177" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="E177" t="n">
-        <v>3.15</v>
+        <v>0.29</v>
       </c>
       <c r="F177" t="n">
-        <v>-3.15</v>
+        <v>-0.29</v>
       </c>
       <c r="G177" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178">
@@ -4959,13 +4959,13 @@
         <v>26</v>
       </c>
       <c r="D178" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E178" t="n">
-        <v>9.57</v>
+        <v>-4.93</v>
       </c>
       <c r="F178" t="n">
-        <v>-9.57</v>
+        <v>4.93</v>
       </c>
       <c r="G178" t="s">
         <v>13</v>
@@ -4982,13 +4982,13 @@
         <v>26</v>
       </c>
       <c r="D179" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E179" t="n">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="F179" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="G179" t="s">
         <v>13</v>
@@ -5005,13 +5005,13 @@
         <v>26</v>
       </c>
       <c r="D180" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E180" t="n">
-        <v>5.23</v>
+        <v>3.15</v>
       </c>
       <c r="F180" t="n">
-        <v>-5.23</v>
+        <v>-3.15</v>
       </c>
       <c r="G180" t="s">
         <v>13</v>
@@ -5028,13 +5028,13 @@
         <v>26</v>
       </c>
       <c r="D181" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E181" t="n">
-        <v>0.16</v>
+        <v>9.57</v>
       </c>
       <c r="F181" t="n">
-        <v>-0.16</v>
+        <v>-9.57</v>
       </c>
       <c r="G181" t="s">
         <v>13</v>
@@ -5051,13 +5051,13 @@
         <v>26</v>
       </c>
       <c r="D182" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E182" t="n">
-        <v>0.8</v>
+        <v>-2.5</v>
       </c>
       <c r="F182" t="n">
-        <v>-0.8</v>
+        <v>2.5</v>
       </c>
       <c r="G182" t="s">
         <v>13</v>
@@ -5074,13 +5074,13 @@
         <v>26</v>
       </c>
       <c r="D183" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E183" t="n">
-        <v>6.19</v>
+        <v>5.23</v>
       </c>
       <c r="F183" t="n">
-        <v>-6.19</v>
+        <v>-5.23</v>
       </c>
       <c r="G183" t="s">
         <v>13</v>
@@ -5097,13 +5097,13 @@
         <v>26</v>
       </c>
       <c r="D184" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E184" t="n">
-        <v>3.11</v>
+        <v>0.16</v>
       </c>
       <c r="F184" t="n">
-        <v>-3.11</v>
+        <v>-0.16</v>
       </c>
       <c r="G184" t="s">
         <v>13</v>
@@ -5120,13 +5120,13 @@
         <v>26</v>
       </c>
       <c r="D185" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="G185" t="s">
         <v>13</v>
@@ -5143,13 +5143,13 @@
         <v>26</v>
       </c>
       <c r="D186" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E186" t="n">
-        <v>-1.48</v>
+        <v>6.19</v>
       </c>
       <c r="F186" t="n">
-        <v>1.48</v>
+        <v>-6.19</v>
       </c>
       <c r="G186" t="s">
         <v>13</v>
@@ -5166,13 +5166,13 @@
         <v>26</v>
       </c>
       <c r="D187" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E187" t="n">
-        <v>-3.4</v>
+        <v>3.11</v>
       </c>
       <c r="F187" t="n">
-        <v>3.4</v>
+        <v>-3.11</v>
       </c>
       <c r="G187" t="s">
         <v>13</v>
@@ -5189,13 +5189,13 @@
         <v>26</v>
       </c>
       <c r="D188" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E188" t="n">
-        <v>-0.92</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="G188" t="s">
         <v>13</v>
@@ -5212,13 +5212,13 @@
         <v>26</v>
       </c>
       <c r="D189" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E189" t="n">
-        <v>5.08</v>
+        <v>-1.48</v>
       </c>
       <c r="F189" t="n">
-        <v>-5.08</v>
+        <v>1.48</v>
       </c>
       <c r="G189" t="s">
         <v>13</v>
@@ -5235,13 +5235,13 @@
         <v>26</v>
       </c>
       <c r="D190" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E190" t="n">
-        <v>3.29</v>
+        <v>-3.4</v>
       </c>
       <c r="F190" t="n">
-        <v>-3.29</v>
+        <v>3.4</v>
       </c>
       <c r="G190" t="s">
         <v>13</v>
@@ -5258,13 +5258,13 @@
         <v>26</v>
       </c>
       <c r="D191" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E191" t="n">
-        <v>0.38</v>
+        <v>-0.92</v>
       </c>
       <c r="F191" t="n">
-        <v>-0.38</v>
+        <v>0.92</v>
       </c>
       <c r="G191" t="s">
         <v>13</v>
@@ -5281,13 +5281,13 @@
         <v>26</v>
       </c>
       <c r="D192" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E192" t="n">
-        <v>5.07</v>
+        <v>5.08</v>
       </c>
       <c r="F192" t="n">
-        <v>-5.07</v>
+        <v>-5.08</v>
       </c>
       <c r="G192" t="s">
         <v>13</v>
@@ -5304,13 +5304,13 @@
         <v>26</v>
       </c>
       <c r="D193" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E193" t="n">
-        <v>-0.11</v>
+        <v>3.29</v>
       </c>
       <c r="F193" t="n">
-        <v>0.11</v>
+        <v>-3.29</v>
       </c>
       <c r="G193" t="s">
         <v>13</v>
@@ -5327,13 +5327,13 @@
         <v>26</v>
       </c>
       <c r="D194" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E194" t="n">
-        <v>2.29</v>
+        <v>0.38</v>
       </c>
       <c r="F194" t="n">
-        <v>-2.29</v>
+        <v>-0.38</v>
       </c>
       <c r="G194" t="s">
         <v>13</v>
@@ -5350,13 +5350,13 @@
         <v>26</v>
       </c>
       <c r="D195" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E195" t="n">
-        <v>6.43</v>
+        <v>5.07</v>
       </c>
       <c r="F195" t="n">
-        <v>-6.43</v>
+        <v>-5.07</v>
       </c>
       <c r="G195" t="s">
         <v>13</v>
@@ -5373,13 +5373,13 @@
         <v>26</v>
       </c>
       <c r="D196" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E196" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="F196" t="n">
         <v>0.11</v>
-      </c>
-      <c r="F196" t="n">
-        <v>-0.11</v>
       </c>
       <c r="G196" t="s">
         <v>13</v>
@@ -5396,13 +5396,13 @@
         <v>26</v>
       </c>
       <c r="D197" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E197" t="n">
-        <v>0.72</v>
+        <v>2.29</v>
       </c>
       <c r="F197" t="n">
-        <v>-0.72</v>
+        <v>-2.29</v>
       </c>
       <c r="G197" t="s">
         <v>13</v>
@@ -5419,13 +5419,13 @@
         <v>26</v>
       </c>
       <c r="D198" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E198" t="n">
-        <v>8.3</v>
+        <v>6.43</v>
       </c>
       <c r="F198" t="n">
-        <v>-8.3</v>
+        <v>-6.43</v>
       </c>
       <c r="G198" t="s">
         <v>13</v>
@@ -5442,13 +5442,13 @@
         <v>26</v>
       </c>
       <c r="D199" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E199" t="n">
-        <v>4.53</v>
+        <v>0.11</v>
       </c>
       <c r="F199" t="n">
-        <v>-4.53</v>
+        <v>-0.11</v>
       </c>
       <c r="G199" t="s">
         <v>13</v>
@@ -5465,13 +5465,13 @@
         <v>26</v>
       </c>
       <c r="D200" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E200" t="n">
-        <v>8.38</v>
+        <v>0.72</v>
       </c>
       <c r="F200" t="n">
-        <v>-8.38</v>
+        <v>-0.72</v>
       </c>
       <c r="G200" t="s">
         <v>13</v>
@@ -5488,13 +5488,13 @@
         <v>26</v>
       </c>
       <c r="D201" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E201" t="n">
-        <v>13.61</v>
+        <v>8.3</v>
       </c>
       <c r="F201" t="n">
-        <v>-13.61</v>
+        <v>-8.3</v>
       </c>
       <c r="G201" t="s">
         <v>13</v>
@@ -5511,13 +5511,13 @@
         <v>26</v>
       </c>
       <c r="D202" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E202" t="n">
-        <v>3.44</v>
+        <v>4.53</v>
       </c>
       <c r="F202" t="n">
-        <v>-3.44</v>
+        <v>-4.53</v>
       </c>
       <c r="G202" t="s">
         <v>13</v>
@@ -5534,13 +5534,13 @@
         <v>26</v>
       </c>
       <c r="D203" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E203" t="n">
-        <v>-0.13</v>
+        <v>8.38</v>
       </c>
       <c r="F203" t="n">
-        <v>0.13</v>
+        <v>-8.38</v>
       </c>
       <c r="G203" t="s">
         <v>13</v>
@@ -5557,13 +5557,13 @@
         <v>26</v>
       </c>
       <c r="D204" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E204" t="n">
-        <v>6.74</v>
+        <v>13.61</v>
       </c>
       <c r="F204" t="n">
-        <v>-6.74</v>
+        <v>-13.61</v>
       </c>
       <c r="G204" t="s">
         <v>13</v>
@@ -5580,13 +5580,13 @@
         <v>26</v>
       </c>
       <c r="D205" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E205" t="n">
-        <v>-0.59</v>
+        <v>3.44</v>
       </c>
       <c r="F205" t="n">
-        <v>0.59</v>
+        <v>-3.44</v>
       </c>
       <c r="G205" t="s">
         <v>13</v>
@@ -5603,13 +5603,13 @@
         <v>26</v>
       </c>
       <c r="D206" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E206" t="n">
-        <v>0.35</v>
+        <v>-0.13</v>
       </c>
       <c r="F206" t="n">
-        <v>-0.35</v>
+        <v>0.13</v>
       </c>
       <c r="G206" t="s">
         <v>13</v>
@@ -5623,16 +5623,16 @@
         <v>25</v>
       </c>
       <c r="C207" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D207" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E207" t="n">
-        <v>-0.29</v>
+        <v>6.74</v>
       </c>
       <c r="F207" t="n">
-        <v>0.29</v>
+        <v>-6.74</v>
       </c>
       <c r="G207" t="s">
         <v>13</v>
@@ -5646,16 +5646,16 @@
         <v>25</v>
       </c>
       <c r="C208" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D208" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E208" t="n">
-        <v>-1.51</v>
+        <v>-0.59</v>
       </c>
       <c r="F208" t="n">
-        <v>1.51</v>
+        <v>0.59</v>
       </c>
       <c r="G208" t="s">
         <v>13</v>
@@ -5669,16 +5669,16 @@
         <v>25</v>
       </c>
       <c r="C209" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D209" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E209" t="n">
-        <v>3.92</v>
+        <v>0.35</v>
       </c>
       <c r="F209" t="n">
-        <v>-3.92</v>
+        <v>-0.35</v>
       </c>
       <c r="G209" t="s">
         <v>13</v>
@@ -5695,13 +5695,13 @@
         <v>17</v>
       </c>
       <c r="D210" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E210" t="n">
-        <v>-0.56</v>
+        <v>-0.29</v>
       </c>
       <c r="F210" t="n">
-        <v>0.56</v>
+        <v>0.29</v>
       </c>
       <c r="G210" t="s">
         <v>13</v>
@@ -5718,13 +5718,13 @@
         <v>17</v>
       </c>
       <c r="D211" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E211" t="n">
-        <v>4.3</v>
+        <v>-1.51</v>
       </c>
       <c r="F211" t="n">
-        <v>-4.3</v>
+        <v>1.51</v>
       </c>
       <c r="G211" t="s">
         <v>13</v>
@@ -5741,13 +5741,13 @@
         <v>17</v>
       </c>
       <c r="D212" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E212" t="n">
-        <v>-0.62</v>
+        <v>3.92</v>
       </c>
       <c r="F212" t="n">
-        <v>0.62</v>
+        <v>-3.92</v>
       </c>
       <c r="G212" t="s">
         <v>13</v>
@@ -5764,13 +5764,13 @@
         <v>17</v>
       </c>
       <c r="D213" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E213" t="n">
-        <v>-1.5</v>
+        <v>-0.56</v>
       </c>
       <c r="F213" t="n">
-        <v>1.5</v>
+        <v>0.56</v>
       </c>
       <c r="G213" t="s">
         <v>13</v>
@@ -5784,16 +5784,16 @@
         <v>25</v>
       </c>
       <c r="C214" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D214" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E214" t="n">
-        <v>0.3</v>
+        <v>4.3</v>
       </c>
       <c r="F214" t="n">
-        <v>-0.3</v>
+        <v>-4.3</v>
       </c>
       <c r="G214" t="s">
         <v>13</v>
@@ -5807,16 +5807,16 @@
         <v>25</v>
       </c>
       <c r="C215" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D215" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E215" t="n">
-        <v>-1.16</v>
+        <v>-0.62</v>
       </c>
       <c r="F215" t="n">
-        <v>1.16</v>
+        <v>0.62</v>
       </c>
       <c r="G215" t="s">
         <v>13</v>
@@ -5830,16 +5830,16 @@
         <v>25</v>
       </c>
       <c r="C216" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D216" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="E216" t="n">
-        <v>0.49</v>
+        <v>-1.5</v>
       </c>
       <c r="F216" t="n">
-        <v>-0.49</v>
+        <v>1.5</v>
       </c>
       <c r="G216" t="s">
         <v>13</v>
@@ -5856,13 +5856,13 @@
         <v>22</v>
       </c>
       <c r="D217" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E217" t="n">
-        <v>3.07</v>
+        <v>0.3</v>
       </c>
       <c r="F217" t="n">
-        <v>-3.07</v>
+        <v>-0.3</v>
       </c>
       <c r="G217" t="s">
         <v>13</v>
@@ -5879,13 +5879,13 @@
         <v>22</v>
       </c>
       <c r="D218" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E218" t="n">
-        <v>0.6</v>
+        <v>-1.16</v>
       </c>
       <c r="F218" t="n">
-        <v>-0.6</v>
+        <v>1.16</v>
       </c>
       <c r="G218" t="s">
         <v>13</v>
@@ -5902,13 +5902,13 @@
         <v>22</v>
       </c>
       <c r="D219" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E219" t="n">
-        <v>5.69</v>
+        <v>0.49</v>
       </c>
       <c r="F219" t="n">
-        <v>-5.69</v>
+        <v>-0.49</v>
       </c>
       <c r="G219" t="s">
         <v>13</v>
@@ -5925,13 +5925,13 @@
         <v>22</v>
       </c>
       <c r="D220" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E220" t="n">
-        <v>12.05</v>
+        <v>3.07</v>
       </c>
       <c r="F220" t="n">
-        <v>-12.05</v>
+        <v>-3.07</v>
       </c>
       <c r="G220" t="s">
         <v>13</v>
@@ -5948,13 +5948,13 @@
         <v>22</v>
       </c>
       <c r="D221" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E221" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F221" t="n">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="G221" t="s">
         <v>13</v>
@@ -5971,13 +5971,13 @@
         <v>22</v>
       </c>
       <c r="D222" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E222" t="n">
-        <v>1.35</v>
+        <v>5.69</v>
       </c>
       <c r="F222" t="n">
-        <v>-1.35</v>
+        <v>-5.69</v>
       </c>
       <c r="G222" t="s">
         <v>13</v>
@@ -5994,13 +5994,13 @@
         <v>22</v>
       </c>
       <c r="D223" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E223" t="n">
-        <v>1.32</v>
+        <v>12.05</v>
       </c>
       <c r="F223" t="n">
-        <v>-1.32</v>
+        <v>-12.05</v>
       </c>
       <c r="G223" t="s">
         <v>13</v>
@@ -6017,13 +6017,13 @@
         <v>22</v>
       </c>
       <c r="D224" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E224" t="n">
-        <v>8.59</v>
+        <v>0.4</v>
       </c>
       <c r="F224" t="n">
-        <v>-8.59</v>
+        <v>-0.4</v>
       </c>
       <c r="G224" t="s">
         <v>13</v>
@@ -6040,13 +6040,13 @@
         <v>22</v>
       </c>
       <c r="D225" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E225" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="F225" t="n">
-        <v>-1.36</v>
+        <v>-1.35</v>
       </c>
       <c r="G225" t="s">
         <v>13</v>
@@ -6063,13 +6063,13 @@
         <v>22</v>
       </c>
       <c r="D226" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E226" t="n">
-        <v>0.79</v>
+        <v>1.32</v>
       </c>
       <c r="F226" t="n">
-        <v>-0.79</v>
+        <v>-1.32</v>
       </c>
       <c r="G226" t="s">
         <v>13</v>
@@ -6086,13 +6086,13 @@
         <v>22</v>
       </c>
       <c r="D227" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.79</v>
+        <v>8.59</v>
       </c>
       <c r="F227" t="n">
-        <v>0.79</v>
+        <v>-8.59</v>
       </c>
       <c r="G227" t="s">
         <v>13</v>
@@ -6109,13 +6109,13 @@
         <v>22</v>
       </c>
       <c r="D228" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E228" t="n">
-        <v>-0.02</v>
+        <v>1.36</v>
       </c>
       <c r="F228" t="n">
-        <v>0.02</v>
+        <v>-1.36</v>
       </c>
       <c r="G228" t="s">
         <v>13</v>
@@ -6129,16 +6129,16 @@
         <v>25</v>
       </c>
       <c r="C229" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D229" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E229" t="n">
-        <v>5.76</v>
+        <v>0.79</v>
       </c>
       <c r="F229" t="n">
-        <v>-5.76</v>
+        <v>-0.79</v>
       </c>
       <c r="G229" t="s">
         <v>13</v>
@@ -6152,16 +6152,16 @@
         <v>25</v>
       </c>
       <c r="C230" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D230" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E230" t="n">
-        <v>3.43</v>
+        <v>-0.79</v>
       </c>
       <c r="F230" t="n">
-        <v>-3.43</v>
+        <v>0.79</v>
       </c>
       <c r="G230" t="s">
         <v>13</v>
@@ -6175,16 +6175,16 @@
         <v>25</v>
       </c>
       <c r="C231" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D231" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E231" t="n">
-        <v>8.4</v>
+        <v>-0.02</v>
       </c>
       <c r="F231" t="n">
-        <v>-8.4</v>
+        <v>0.02</v>
       </c>
       <c r="G231" t="s">
         <v>13</v>
@@ -6201,13 +6201,13 @@
         <v>20</v>
       </c>
       <c r="D232" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E232" t="n">
-        <v>-2.71</v>
+        <v>5.76</v>
       </c>
       <c r="F232" t="n">
-        <v>2.71</v>
+        <v>-5.76</v>
       </c>
       <c r="G232" t="s">
         <v>13</v>
@@ -6224,13 +6224,13 @@
         <v>20</v>
       </c>
       <c r="D233" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E233" t="n">
-        <v>-4.88</v>
+        <v>3.43</v>
       </c>
       <c r="F233" t="n">
-        <v>4.88</v>
+        <v>-3.43</v>
       </c>
       <c r="G233" t="s">
         <v>13</v>
@@ -6247,13 +6247,13 @@
         <v>20</v>
       </c>
       <c r="D234" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E234" t="n">
-        <v>-2.22</v>
+        <v>8.4</v>
       </c>
       <c r="F234" t="n">
-        <v>2.22</v>
+        <v>-8.4</v>
       </c>
       <c r="G234" t="s">
         <v>13</v>
@@ -6270,13 +6270,13 @@
         <v>20</v>
       </c>
       <c r="D235" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E235" t="n">
-        <v>6.64</v>
+        <v>-2.71</v>
       </c>
       <c r="F235" t="n">
-        <v>-6.64</v>
+        <v>2.71</v>
       </c>
       <c r="G235" t="s">
         <v>13</v>
@@ -6293,13 +6293,13 @@
         <v>20</v>
       </c>
       <c r="D236" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E236" t="n">
-        <v>0.28</v>
+        <v>-4.88</v>
       </c>
       <c r="F236" t="n">
-        <v>-0.28</v>
+        <v>4.88</v>
       </c>
       <c r="G236" t="s">
         <v>13</v>
@@ -6316,13 +6316,13 @@
         <v>20</v>
       </c>
       <c r="D237" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E237" t="n">
-        <v>-0.88</v>
+        <v>-2.22</v>
       </c>
       <c r="F237" t="n">
-        <v>0.88</v>
+        <v>2.22</v>
       </c>
       <c r="G237" t="s">
         <v>13</v>
@@ -6336,16 +6336,16 @@
         <v>25</v>
       </c>
       <c r="C238" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D238" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E238" t="n">
-        <v>-1.43</v>
+        <v>6.64</v>
       </c>
       <c r="F238" t="n">
-        <v>1.43</v>
+        <v>-6.64</v>
       </c>
       <c r="G238" t="s">
         <v>13</v>
@@ -6359,16 +6359,16 @@
         <v>25</v>
       </c>
       <c r="C239" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D239" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E239" t="n">
-        <v>-4.76</v>
+        <v>0.28</v>
       </c>
       <c r="F239" t="n">
-        <v>4.76</v>
+        <v>-0.28</v>
       </c>
       <c r="G239" t="s">
         <v>13</v>
@@ -6382,16 +6382,16 @@
         <v>25</v>
       </c>
       <c r="C240" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D240" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E240" t="n">
-        <v>4.79</v>
+        <v>-0.88</v>
       </c>
       <c r="F240" t="n">
-        <v>-4.79</v>
+        <v>0.88</v>
       </c>
       <c r="G240" t="s">
         <v>13</v>
@@ -6408,13 +6408,13 @@
         <v>23</v>
       </c>
       <c r="D241" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E241" t="n">
-        <v>2.54</v>
+        <v>-1.43</v>
       </c>
       <c r="F241" t="n">
-        <v>-2.54</v>
+        <v>1.43</v>
       </c>
       <c r="G241" t="s">
         <v>13</v>
@@ -6431,13 +6431,13 @@
         <v>23</v>
       </c>
       <c r="D242" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E242" t="n">
-        <v>0.61</v>
+        <v>-4.76</v>
       </c>
       <c r="F242" t="n">
-        <v>-0.61</v>
+        <v>4.76</v>
       </c>
       <c r="G242" t="s">
         <v>13</v>
@@ -6451,16 +6451,16 @@
         <v>25</v>
       </c>
       <c r="C243" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D243" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E243" t="n">
-        <v>3.62</v>
+        <v>4.79</v>
       </c>
       <c r="F243" t="n">
-        <v>-3.62</v>
+        <v>-4.79</v>
       </c>
       <c r="G243" t="s">
         <v>13</v>
@@ -6474,16 +6474,16 @@
         <v>25</v>
       </c>
       <c r="C244" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D244" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E244" t="n">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="F244" t="n">
-        <v>-2.67</v>
+        <v>-2.54</v>
       </c>
       <c r="G244" t="s">
         <v>13</v>
@@ -6497,16 +6497,16 @@
         <v>25</v>
       </c>
       <c r="C245" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D245" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E245" t="n">
-        <v>4.22</v>
+        <v>0.61</v>
       </c>
       <c r="F245" t="n">
-        <v>-4.22</v>
+        <v>-0.61</v>
       </c>
       <c r="G245" t="s">
         <v>13</v>
@@ -6523,13 +6523,13 @@
         <v>18</v>
       </c>
       <c r="D246" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E246" t="n">
-        <v>10.87</v>
+        <v>3.62</v>
       </c>
       <c r="F246" t="n">
-        <v>-10.87</v>
+        <v>-3.62</v>
       </c>
       <c r="G246" t="s">
         <v>13</v>
@@ -6543,16 +6543,16 @@
         <v>25</v>
       </c>
       <c r="C247" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D247" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E247" t="n">
-        <v>-1.46</v>
+        <v>2.67</v>
       </c>
       <c r="F247" t="n">
-        <v>1.46</v>
+        <v>-2.67</v>
       </c>
       <c r="G247" t="s">
         <v>13</v>
@@ -6566,16 +6566,16 @@
         <v>25</v>
       </c>
       <c r="C248" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D248" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E248" t="n">
-        <v>2.23</v>
+        <v>4.22</v>
       </c>
       <c r="F248" t="n">
-        <v>-2.23</v>
+        <v>-4.22</v>
       </c>
       <c r="G248" t="s">
         <v>13</v>
@@ -6589,16 +6589,16 @@
         <v>25</v>
       </c>
       <c r="C249" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D249" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E249" t="n">
-        <v>2.28</v>
+        <v>10.87</v>
       </c>
       <c r="F249" t="n">
-        <v>-2.28</v>
+        <v>-10.87</v>
       </c>
       <c r="G249" t="s">
         <v>13</v>
@@ -6615,13 +6615,13 @@
         <v>23</v>
       </c>
       <c r="D250" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E250" t="n">
-        <v>3.44</v>
+        <v>-1.46</v>
       </c>
       <c r="F250" t="n">
-        <v>-3.44</v>
+        <v>1.46</v>
       </c>
       <c r="G250" t="s">
         <v>13</v>
@@ -6635,16 +6635,16 @@
         <v>25</v>
       </c>
       <c r="C251" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D251" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="E251" t="n">
-        <v>1.28</v>
+        <v>2.23</v>
       </c>
       <c r="F251" t="n">
-        <v>-1.28</v>
+        <v>-2.23</v>
       </c>
       <c r="G251" t="s">
         <v>13</v>
@@ -6658,16 +6658,16 @@
         <v>25</v>
       </c>
       <c r="C252" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D252" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E252" t="n">
-        <v>3.02</v>
+        <v>2.28</v>
       </c>
       <c r="F252" t="n">
-        <v>-3.02</v>
+        <v>-2.28</v>
       </c>
       <c r="G252" t="s">
         <v>13</v>
@@ -6681,16 +6681,16 @@
         <v>25</v>
       </c>
       <c r="C253" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D253" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E253" t="n">
-        <v>0.55</v>
+        <v>3.44</v>
       </c>
       <c r="F253" t="n">
-        <v>-0.55</v>
+        <v>-3.44</v>
       </c>
       <c r="G253" t="s">
         <v>13</v>
@@ -6707,13 +6707,13 @@
         <v>20</v>
       </c>
       <c r="D254" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E254" t="n">
-        <v>-2.71</v>
+        <v>1.28</v>
       </c>
       <c r="F254" t="n">
-        <v>2.71</v>
+        <v>-1.28</v>
       </c>
       <c r="G254" t="s">
         <v>13</v>
@@ -6730,13 +6730,13 @@
         <v>20</v>
       </c>
       <c r="D255" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E255" t="n">
-        <v>0.44</v>
+        <v>3.02</v>
       </c>
       <c r="F255" t="n">
-        <v>-0.44</v>
+        <v>-3.02</v>
       </c>
       <c r="G255" t="s">
         <v>13</v>
@@ -6753,13 +6753,13 @@
         <v>20</v>
       </c>
       <c r="D256" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E256" t="n">
-        <v>7.15</v>
+        <v>0.55</v>
       </c>
       <c r="F256" t="n">
-        <v>-7.15</v>
+        <v>-0.55</v>
       </c>
       <c r="G256" t="s">
         <v>13</v>
@@ -6773,16 +6773,16 @@
         <v>25</v>
       </c>
       <c r="C257" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D257" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E257" t="n">
-        <v>-2.11</v>
+        <v>-2.71</v>
       </c>
       <c r="F257" t="n">
-        <v>2.11</v>
+        <v>2.71</v>
       </c>
       <c r="G257" t="s">
         <v>13</v>
@@ -6796,16 +6796,16 @@
         <v>25</v>
       </c>
       <c r="C258" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D258" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="E258" t="n">
-        <v>-1.45</v>
+        <v>0.44</v>
       </c>
       <c r="F258" t="n">
-        <v>1.45</v>
+        <v>-0.44</v>
       </c>
       <c r="G258" t="s">
         <v>13</v>
@@ -6819,16 +6819,16 @@
         <v>25</v>
       </c>
       <c r="C259" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D259" t="s">
         <v>108</v>
       </c>
       <c r="E259" t="n">
-        <v>-0.44</v>
+        <v>7.15</v>
       </c>
       <c r="F259" t="n">
-        <v>0.44</v>
+        <v>-7.15</v>
       </c>
       <c r="G259" t="s">
         <v>13</v>
@@ -6842,16 +6842,16 @@
         <v>25</v>
       </c>
       <c r="C260" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D260" t="s">
         <v>109</v>
       </c>
       <c r="E260" t="n">
-        <v>0.38</v>
+        <v>-2.11</v>
       </c>
       <c r="F260" t="n">
-        <v>-0.38</v>
+        <v>2.11</v>
       </c>
       <c r="G260" t="s">
         <v>13</v>
@@ -6865,16 +6865,16 @@
         <v>25</v>
       </c>
       <c r="C261" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D261" t="s">
         <v>110</v>
       </c>
       <c r="E261" t="n">
-        <v>-1.4</v>
+        <v>-1.45</v>
       </c>
       <c r="F261" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="G261" t="s">
         <v>13</v>
@@ -6888,16 +6888,16 @@
         <v>25</v>
       </c>
       <c r="C262" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D262" t="s">
         <v>111</v>
       </c>
       <c r="E262" t="n">
-        <v>0.2</v>
+        <v>-0.44</v>
       </c>
       <c r="F262" t="n">
-        <v>-0.2</v>
+        <v>0.44</v>
       </c>
       <c r="G262" t="s">
         <v>13</v>
@@ -6911,16 +6911,16 @@
         <v>25</v>
       </c>
       <c r="C263" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D263" t="s">
         <v>112</v>
       </c>
       <c r="E263" t="n">
-        <v>-1.66</v>
+        <v>0.38</v>
       </c>
       <c r="F263" t="n">
-        <v>1.66</v>
+        <v>-0.38</v>
       </c>
       <c r="G263" t="s">
         <v>13</v>
@@ -6934,16 +6934,16 @@
         <v>25</v>
       </c>
       <c r="C264" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D264" t="s">
         <v>113</v>
       </c>
       <c r="E264" t="n">
-        <v>15.06</v>
+        <v>-1.4</v>
       </c>
       <c r="F264" t="n">
-        <v>-15.06</v>
+        <v>1.4</v>
       </c>
       <c r="G264" t="s">
         <v>13</v>
@@ -6957,16 +6957,16 @@
         <v>25</v>
       </c>
       <c r="C265" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D265" t="s">
         <v>114</v>
       </c>
       <c r="E265" t="n">
-        <v>2.85</v>
+        <v>0.2</v>
       </c>
       <c r="F265" t="n">
-        <v>-2.85</v>
+        <v>-0.2</v>
       </c>
       <c r="G265" t="s">
         <v>13</v>
@@ -6980,16 +6980,16 @@
         <v>25</v>
       </c>
       <c r="C266" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D266" t="s">
         <v>115</v>
       </c>
       <c r="E266" t="n">
-        <v>0.94</v>
+        <v>-1.66</v>
       </c>
       <c r="F266" t="n">
-        <v>-0.94</v>
+        <v>1.66</v>
       </c>
       <c r="G266" t="s">
         <v>13</v>
@@ -7003,16 +7003,16 @@
         <v>25</v>
       </c>
       <c r="C267" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D267" t="s">
         <v>116</v>
       </c>
       <c r="E267" t="n">
-        <v>5.72</v>
+        <v>15.06</v>
       </c>
       <c r="F267" t="n">
-        <v>-5.72</v>
+        <v>-15.06</v>
       </c>
       <c r="G267" t="s">
         <v>13</v>
@@ -7026,16 +7026,16 @@
         <v>25</v>
       </c>
       <c r="C268" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D268" t="s">
         <v>117</v>
       </c>
       <c r="E268" t="n">
-        <v>-3.14</v>
+        <v>2.85</v>
       </c>
       <c r="F268" t="n">
-        <v>3.14</v>
+        <v>-2.85</v>
       </c>
       <c r="G268" t="s">
         <v>13</v>
@@ -7049,16 +7049,16 @@
         <v>25</v>
       </c>
       <c r="C269" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D269" t="s">
         <v>118</v>
       </c>
       <c r="E269" t="n">
-        <v>-0.4</v>
+        <v>0.94</v>
       </c>
       <c r="F269" t="n">
-        <v>0.4</v>
+        <v>-0.94</v>
       </c>
       <c r="G269" t="s">
         <v>13</v>
@@ -7072,16 +7072,16 @@
         <v>25</v>
       </c>
       <c r="C270" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D270" t="s">
         <v>119</v>
       </c>
       <c r="E270" t="n">
-        <v>3.48</v>
+        <v>5.72</v>
       </c>
       <c r="F270" t="n">
-        <v>-3.48</v>
+        <v>-5.72</v>
       </c>
       <c r="G270" t="s">
         <v>13</v>
@@ -7101,10 +7101,10 @@
         <v>120</v>
       </c>
       <c r="E271" t="n">
-        <v>-3.7</v>
+        <v>-3.14</v>
       </c>
       <c r="F271" t="n">
-        <v>3.7</v>
+        <v>3.14</v>
       </c>
       <c r="G271" t="s">
         <v>13</v>
@@ -7124,10 +7124,10 @@
         <v>121</v>
       </c>
       <c r="E272" t="n">
-        <v>4.48</v>
+        <v>-0.4</v>
       </c>
       <c r="F272" t="n">
-        <v>-4.48</v>
+        <v>0.4</v>
       </c>
       <c r="G272" t="s">
         <v>13</v>
@@ -7141,16 +7141,16 @@
         <v>25</v>
       </c>
       <c r="C273" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D273" t="s">
         <v>122</v>
       </c>
       <c r="E273" t="n">
-        <v>2.09</v>
+        <v>3.48</v>
       </c>
       <c r="F273" t="n">
-        <v>-2.09</v>
+        <v>-3.48</v>
       </c>
       <c r="G273" t="s">
         <v>13</v>
@@ -7164,16 +7164,16 @@
         <v>25</v>
       </c>
       <c r="C274" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D274" t="s">
         <v>123</v>
       </c>
       <c r="E274" t="n">
-        <v>-0.41</v>
+        <v>-3.7</v>
       </c>
       <c r="F274" t="n">
-        <v>0.41</v>
+        <v>3.7</v>
       </c>
       <c r="G274" t="s">
         <v>13</v>
@@ -7187,16 +7187,16 @@
         <v>25</v>
       </c>
       <c r="C275" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D275" t="s">
         <v>124</v>
       </c>
       <c r="E275" t="n">
-        <v>1.24</v>
+        <v>4.48</v>
       </c>
       <c r="F275" t="n">
-        <v>-1.24</v>
+        <v>-4.48</v>
       </c>
       <c r="G275" t="s">
         <v>13</v>
@@ -7210,16 +7210,16 @@
         <v>25</v>
       </c>
       <c r="C276" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D276" t="s">
         <v>125</v>
       </c>
       <c r="E276" t="n">
-        <v>0.31</v>
+        <v>2.09</v>
       </c>
       <c r="F276" t="n">
-        <v>-0.31</v>
+        <v>-2.09</v>
       </c>
       <c r="G276" t="s">
         <v>13</v>
@@ -7233,16 +7233,16 @@
         <v>25</v>
       </c>
       <c r="C277" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D277" t="s">
         <v>126</v>
       </c>
       <c r="E277" t="n">
-        <v>8.87</v>
+        <v>-0.41</v>
       </c>
       <c r="F277" t="n">
-        <v>-8.87</v>
+        <v>0.41</v>
       </c>
       <c r="G277" t="s">
         <v>13</v>
@@ -7256,16 +7256,16 @@
         <v>25</v>
       </c>
       <c r="C278" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D278" t="s">
         <v>127</v>
       </c>
       <c r="E278" t="n">
-        <v>4.99</v>
+        <v>1.24</v>
       </c>
       <c r="F278" t="n">
-        <v>-4.99</v>
+        <v>-1.24</v>
       </c>
       <c r="G278" t="s">
         <v>13</v>
@@ -7279,16 +7279,16 @@
         <v>25</v>
       </c>
       <c r="C279" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D279" t="s">
         <v>128</v>
       </c>
       <c r="E279" t="n">
-        <v>1.64</v>
+        <v>0.31</v>
       </c>
       <c r="F279" t="n">
-        <v>-1.64</v>
+        <v>-0.31</v>
       </c>
       <c r="G279" t="s">
         <v>13</v>
@@ -7302,16 +7302,16 @@
         <v>25</v>
       </c>
       <c r="C280" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D280" t="s">
         <v>129</v>
       </c>
       <c r="E280" t="n">
-        <v>2.6</v>
+        <v>8.87</v>
       </c>
       <c r="F280" t="n">
-        <v>-2.6</v>
+        <v>-8.87</v>
       </c>
       <c r="G280" t="s">
         <v>13</v>
@@ -7325,16 +7325,16 @@
         <v>25</v>
       </c>
       <c r="C281" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D281" t="s">
         <v>130</v>
       </c>
       <c r="E281" t="n">
-        <v>1.45</v>
+        <v>4.99</v>
       </c>
       <c r="F281" t="n">
-        <v>-1.45</v>
+        <v>-4.99</v>
       </c>
       <c r="G281" t="s">
         <v>13</v>
@@ -7348,16 +7348,16 @@
         <v>25</v>
       </c>
       <c r="C282" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D282" t="s">
         <v>131</v>
       </c>
       <c r="E282" t="n">
-        <v>1.06</v>
+        <v>1.64</v>
       </c>
       <c r="F282" t="n">
-        <v>-1.06</v>
+        <v>-1.64</v>
       </c>
       <c r="G282" t="s">
         <v>13</v>
@@ -7377,10 +7377,10 @@
         <v>132</v>
       </c>
       <c r="E283" t="n">
-        <v>1.03</v>
+        <v>2.6</v>
       </c>
       <c r="F283" t="n">
-        <v>-1.03</v>
+        <v>-2.6</v>
       </c>
       <c r="G283" t="s">
         <v>13</v>
@@ -7400,10 +7400,10 @@
         <v>133</v>
       </c>
       <c r="E284" t="n">
-        <v>10.86</v>
+        <v>1.45</v>
       </c>
       <c r="F284" t="n">
-        <v>-10.86</v>
+        <v>-1.45</v>
       </c>
       <c r="G284" t="s">
         <v>13</v>
@@ -7423,10 +7423,10 @@
         <v>134</v>
       </c>
       <c r="E285" t="n">
-        <v>4.57</v>
+        <v>1.06</v>
       </c>
       <c r="F285" t="n">
-        <v>-4.57</v>
+        <v>-1.06</v>
       </c>
       <c r="G285" t="s">
         <v>13</v>
@@ -7440,16 +7440,16 @@
         <v>25</v>
       </c>
       <c r="C286" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D286" t="s">
         <v>135</v>
       </c>
       <c r="E286" t="n">
-        <v>5.38</v>
+        <v>1.03</v>
       </c>
       <c r="F286" t="n">
-        <v>-5.38</v>
+        <v>-1.03</v>
       </c>
       <c r="G286" t="s">
         <v>13</v>
@@ -7463,16 +7463,16 @@
         <v>25</v>
       </c>
       <c r="C287" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D287" t="s">
         <v>136</v>
       </c>
       <c r="E287" t="n">
-        <v>-1.45</v>
+        <v>10.86</v>
       </c>
       <c r="F287" t="n">
-        <v>1.45</v>
+        <v>-10.86</v>
       </c>
       <c r="G287" t="s">
         <v>13</v>
@@ -7486,16 +7486,16 @@
         <v>25</v>
       </c>
       <c r="C288" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D288" t="s">
         <v>137</v>
       </c>
       <c r="E288" t="n">
-        <v>0.82</v>
+        <v>4.57</v>
       </c>
       <c r="F288" t="n">
-        <v>-0.82</v>
+        <v>-4.57</v>
       </c>
       <c r="G288" t="s">
         <v>13</v>
@@ -7509,16 +7509,16 @@
         <v>25</v>
       </c>
       <c r="C289" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D289" t="s">
         <v>138</v>
       </c>
       <c r="E289" t="n">
-        <v>0.53</v>
+        <v>5.38</v>
       </c>
       <c r="F289" t="n">
-        <v>-0.53</v>
+        <v>-5.38</v>
       </c>
       <c r="G289" t="s">
         <v>13</v>
@@ -7532,16 +7532,16 @@
         <v>25</v>
       </c>
       <c r="C290" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D290" t="s">
         <v>139</v>
       </c>
       <c r="E290" t="n">
-        <v>8.07</v>
+        <v>-1.45</v>
       </c>
       <c r="F290" t="n">
-        <v>-8.07</v>
+        <v>1.45</v>
       </c>
       <c r="G290" t="s">
         <v>13</v>
@@ -7555,16 +7555,16 @@
         <v>25</v>
       </c>
       <c r="C291" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D291" t="s">
         <v>140</v>
       </c>
       <c r="E291" t="n">
-        <v>-0.41</v>
+        <v>0.82</v>
       </c>
       <c r="F291" t="n">
-        <v>0.41</v>
+        <v>-0.82</v>
       </c>
       <c r="G291" t="s">
         <v>13</v>
@@ -7578,16 +7578,16 @@
         <v>25</v>
       </c>
       <c r="C292" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D292" t="s">
         <v>141</v>
       </c>
       <c r="E292" t="n">
-        <v>5.28</v>
+        <v>0.53</v>
       </c>
       <c r="F292" t="n">
-        <v>-5.28</v>
+        <v>-0.53</v>
       </c>
       <c r="G292" t="s">
         <v>13</v>
@@ -7601,16 +7601,16 @@
         <v>25</v>
       </c>
       <c r="C293" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D293" t="s">
         <v>142</v>
       </c>
       <c r="E293" t="n">
-        <v>-0.15</v>
+        <v>8.07</v>
       </c>
       <c r="F293" t="n">
-        <v>0.15</v>
+        <v>-8.07</v>
       </c>
       <c r="G293" t="s">
         <v>13</v>
@@ -7624,16 +7624,16 @@
         <v>25</v>
       </c>
       <c r="C294" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D294" t="s">
         <v>143</v>
       </c>
       <c r="E294" t="n">
-        <v>-2.83</v>
+        <v>-0.41</v>
       </c>
       <c r="F294" t="n">
-        <v>2.83</v>
+        <v>0.41</v>
       </c>
       <c r="G294" t="s">
         <v>13</v>
@@ -7647,16 +7647,16 @@
         <v>25</v>
       </c>
       <c r="C295" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D295" t="s">
         <v>144</v>
       </c>
       <c r="E295" t="n">
-        <v>1.12</v>
+        <v>5.28</v>
       </c>
       <c r="F295" t="n">
-        <v>-1.12</v>
+        <v>-5.28</v>
       </c>
       <c r="G295" t="s">
         <v>13</v>
@@ -7670,16 +7670,16 @@
         <v>25</v>
       </c>
       <c r="C296" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D296" t="s">
         <v>145</v>
       </c>
       <c r="E296" t="n">
-        <v>-0.54</v>
+        <v>-0.15</v>
       </c>
       <c r="F296" t="n">
-        <v>0.54</v>
+        <v>0.15</v>
       </c>
       <c r="G296" t="s">
         <v>13</v>
@@ -7693,16 +7693,16 @@
         <v>25</v>
       </c>
       <c r="C297" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D297" t="s">
         <v>146</v>
       </c>
       <c r="E297" t="n">
-        <v>1.47</v>
+        <v>-2.83</v>
       </c>
       <c r="F297" t="n">
-        <v>-1.47</v>
+        <v>2.83</v>
       </c>
       <c r="G297" t="s">
         <v>13</v>
@@ -7716,16 +7716,16 @@
         <v>25</v>
       </c>
       <c r="C298" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D298" t="s">
         <v>147</v>
       </c>
       <c r="E298" t="n">
-        <v>3.9</v>
+        <v>1.12</v>
       </c>
       <c r="F298" t="n">
-        <v>-3.9</v>
+        <v>-1.12</v>
       </c>
       <c r="G298" t="s">
         <v>13</v>
@@ -7739,16 +7739,16 @@
         <v>25</v>
       </c>
       <c r="C299" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D299" t="s">
         <v>148</v>
       </c>
       <c r="E299" t="n">
-        <v>6.49</v>
+        <v>-0.54</v>
       </c>
       <c r="F299" t="n">
-        <v>-6.49</v>
+        <v>0.54</v>
       </c>
       <c r="G299" t="s">
         <v>13</v>
@@ -7762,16 +7762,16 @@
         <v>25</v>
       </c>
       <c r="C300" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D300" t="s">
         <v>149</v>
       </c>
       <c r="E300" t="n">
-        <v>-1.6</v>
+        <v>1.47</v>
       </c>
       <c r="F300" t="n">
-        <v>1.6</v>
+        <v>-1.47</v>
       </c>
       <c r="G300" t="s">
         <v>13</v>
@@ -7785,16 +7785,16 @@
         <v>25</v>
       </c>
       <c r="C301" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D301" t="s">
         <v>150</v>
       </c>
       <c r="E301" t="n">
-        <v>-2.23</v>
+        <v>3.9</v>
       </c>
       <c r="F301" t="n">
-        <v>2.23</v>
+        <v>-3.9</v>
       </c>
       <c r="G301" t="s">
         <v>13</v>
@@ -7808,16 +7808,16 @@
         <v>25</v>
       </c>
       <c r="C302" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D302" t="s">
         <v>151</v>
       </c>
       <c r="E302" t="n">
-        <v>4.76</v>
+        <v>6.49</v>
       </c>
       <c r="F302" t="n">
-        <v>-4.76</v>
+        <v>-6.49</v>
       </c>
       <c r="G302" t="s">
         <v>13</v>
@@ -7831,16 +7831,16 @@
         <v>25</v>
       </c>
       <c r="C303" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D303" t="s">
         <v>152</v>
       </c>
       <c r="E303" t="n">
-        <v>-0.62</v>
+        <v>-1.6</v>
       </c>
       <c r="F303" t="n">
-        <v>0.62</v>
+        <v>1.6</v>
       </c>
       <c r="G303" t="s">
         <v>13</v>
@@ -7854,16 +7854,16 @@
         <v>25</v>
       </c>
       <c r="C304" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D304" t="s">
         <v>153</v>
       </c>
       <c r="E304" t="n">
-        <v>-3.29</v>
+        <v>-2.23</v>
       </c>
       <c r="F304" t="n">
-        <v>3.29</v>
+        <v>2.23</v>
       </c>
       <c r="G304" t="s">
         <v>13</v>
@@ -7877,16 +7877,16 @@
         <v>25</v>
       </c>
       <c r="C305" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D305" t="s">
         <v>154</v>
       </c>
       <c r="E305" t="n">
-        <v>0.31</v>
+        <v>4.76</v>
       </c>
       <c r="F305" t="n">
-        <v>-0.31</v>
+        <v>-4.76</v>
       </c>
       <c r="G305" t="s">
         <v>13</v>
@@ -7900,16 +7900,16 @@
         <v>25</v>
       </c>
       <c r="C306" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D306" t="s">
         <v>155</v>
       </c>
       <c r="E306" t="n">
-        <v>-0.35</v>
+        <v>-0.62</v>
       </c>
       <c r="F306" t="n">
-        <v>0.35</v>
+        <v>0.62</v>
       </c>
       <c r="G306" t="s">
         <v>13</v>
@@ -7923,16 +7923,16 @@
         <v>25</v>
       </c>
       <c r="C307" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D307" t="s">
         <v>156</v>
       </c>
       <c r="E307" t="n">
-        <v>3.44</v>
+        <v>-3.29</v>
       </c>
       <c r="F307" t="n">
-        <v>-3.44</v>
+        <v>3.29</v>
       </c>
       <c r="G307" t="s">
         <v>13</v>
@@ -7946,16 +7946,16 @@
         <v>25</v>
       </c>
       <c r="C308" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D308" t="s">
         <v>157</v>
       </c>
       <c r="E308" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="F308" t="n">
-        <v>-0.37</v>
+        <v>-0.31</v>
       </c>
       <c r="G308" t="s">
         <v>13</v>
@@ -7969,16 +7969,16 @@
         <v>25</v>
       </c>
       <c r="C309" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D309" t="s">
         <v>158</v>
       </c>
       <c r="E309" t="n">
-        <v>0.4</v>
+        <v>-0.35</v>
       </c>
       <c r="F309" t="n">
-        <v>-0.4</v>
+        <v>0.35</v>
       </c>
       <c r="G309" t="s">
         <v>13</v>
@@ -7998,10 +7998,10 @@
         <v>159</v>
       </c>
       <c r="E310" t="n">
-        <v>2.51</v>
+        <v>3.44</v>
       </c>
       <c r="F310" t="n">
-        <v>-2.51</v>
+        <v>-3.44</v>
       </c>
       <c r="G310" t="s">
         <v>13</v>
@@ -8015,16 +8015,16 @@
         <v>25</v>
       </c>
       <c r="C311" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D311" t="s">
         <v>160</v>
       </c>
       <c r="E311" t="n">
-        <v>2.47</v>
+        <v>0.37</v>
       </c>
       <c r="F311" t="n">
-        <v>-2.47</v>
+        <v>-0.37</v>
       </c>
       <c r="G311" t="s">
         <v>13</v>
@@ -8038,16 +8038,16 @@
         <v>25</v>
       </c>
       <c r="C312" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D312" t="s">
         <v>161</v>
       </c>
       <c r="E312" t="n">
-        <v>-2</v>
+        <v>0.4</v>
       </c>
       <c r="F312" t="n">
-        <v>2</v>
+        <v>-0.4</v>
       </c>
       <c r="G312" t="s">
         <v>13</v>
@@ -8061,16 +8061,16 @@
         <v>25</v>
       </c>
       <c r="C313" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D313" t="s">
         <v>162</v>
       </c>
       <c r="E313" t="n">
-        <v>4.4</v>
+        <v>2.51</v>
       </c>
       <c r="F313" t="n">
-        <v>-4.4</v>
+        <v>-2.51</v>
       </c>
       <c r="G313" t="s">
         <v>13</v>
@@ -8084,16 +8084,16 @@
         <v>25</v>
       </c>
       <c r="C314" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D314" t="s">
         <v>163</v>
       </c>
       <c r="E314" t="n">
-        <v>-2</v>
+        <v>2.47</v>
       </c>
       <c r="F314" t="n">
-        <v>2</v>
+        <v>-2.47</v>
       </c>
       <c r="G314" t="s">
         <v>13</v>
@@ -8113,10 +8113,10 @@
         <v>164</v>
       </c>
       <c r="E315" t="n">
-        <v>4.91</v>
+        <v>-2</v>
       </c>
       <c r="F315" t="n">
-        <v>-4.91</v>
+        <v>2</v>
       </c>
       <c r="G315" t="s">
         <v>13</v>
@@ -8130,16 +8130,16 @@
         <v>25</v>
       </c>
       <c r="C316" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D316" t="s">
         <v>165</v>
       </c>
       <c r="E316" t="n">
-        <v>-0.85</v>
+        <v>4.4</v>
       </c>
       <c r="F316" t="n">
-        <v>0.85</v>
+        <v>-4.4</v>
       </c>
       <c r="G316" t="s">
         <v>13</v>
@@ -8153,16 +8153,16 @@
         <v>25</v>
       </c>
       <c r="C317" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D317" t="s">
         <v>166</v>
       </c>
       <c r="E317" t="n">
-        <v>-0.37</v>
+        <v>-2</v>
       </c>
       <c r="F317" t="n">
-        <v>0.37</v>
+        <v>2</v>
       </c>
       <c r="G317" t="s">
         <v>13</v>
@@ -8176,16 +8176,16 @@
         <v>25</v>
       </c>
       <c r="C318" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D318" t="s">
         <v>167</v>
       </c>
       <c r="E318" t="n">
-        <v>3.32</v>
+        <v>4.91</v>
       </c>
       <c r="F318" t="n">
-        <v>-3.32</v>
+        <v>-4.91</v>
       </c>
       <c r="G318" t="s">
         <v>13</v>
@@ -8199,16 +8199,16 @@
         <v>25</v>
       </c>
       <c r="C319" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D319" t="s">
         <v>168</v>
       </c>
       <c r="E319" t="n">
-        <v>3.63</v>
+        <v>-0.85</v>
       </c>
       <c r="F319" t="n">
-        <v>-3.63</v>
+        <v>0.85</v>
       </c>
       <c r="G319" t="s">
         <v>13</v>
@@ -8222,16 +8222,16 @@
         <v>25</v>
       </c>
       <c r="C320" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D320" t="s">
         <v>169</v>
       </c>
       <c r="E320" t="n">
-        <v>2.29</v>
+        <v>-0.37</v>
       </c>
       <c r="F320" t="n">
-        <v>-2.29</v>
+        <v>0.37</v>
       </c>
       <c r="G320" t="s">
         <v>13</v>
@@ -8251,10 +8251,10 @@
         <v>170</v>
       </c>
       <c r="E321" t="n">
-        <v>6.9</v>
+        <v>3.32</v>
       </c>
       <c r="F321" t="n">
-        <v>-6.9</v>
+        <v>-3.32</v>
       </c>
       <c r="G321" t="s">
         <v>13</v>
@@ -8268,16 +8268,16 @@
         <v>25</v>
       </c>
       <c r="C322" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D322" t="s">
         <v>171</v>
       </c>
       <c r="E322" t="n">
-        <v>1.81</v>
+        <v>3.63</v>
       </c>
       <c r="F322" t="n">
-        <v>-1.81</v>
+        <v>-3.63</v>
       </c>
       <c r="G322" t="s">
         <v>13</v>
@@ -8291,16 +8291,16 @@
         <v>25</v>
       </c>
       <c r="C323" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D323" t="s">
         <v>172</v>
       </c>
       <c r="E323" t="n">
-        <v>1.63</v>
+        <v>2.29</v>
       </c>
       <c r="F323" t="n">
-        <v>-1.63</v>
+        <v>-2.29</v>
       </c>
       <c r="G323" t="s">
         <v>13</v>
@@ -8308,71 +8308,71 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B324" t="s">
         <v>25</v>
       </c>
       <c r="C324" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D324" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="E324" t="n">
-        <v>-7.14</v>
+        <v>6.9</v>
       </c>
       <c r="F324" t="n">
-        <v>7.14</v>
+        <v>-6.9</v>
       </c>
       <c r="G324" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B325" t="s">
         <v>25</v>
       </c>
       <c r="C325" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D325" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="E325" t="n">
-        <v>-1.21</v>
+        <v>1.81</v>
       </c>
       <c r="F325" t="n">
-        <v>1.21</v>
+        <v>-1.81</v>
       </c>
       <c r="G325" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B326" t="s">
         <v>25</v>
       </c>
       <c r="C326" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D326" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="E326" t="n">
-        <v>4.59</v>
+        <v>1.63</v>
       </c>
       <c r="F326" t="n">
-        <v>-4.59</v>
+        <v>-1.63</v>
       </c>
       <c r="G326" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="327">
@@ -8386,13 +8386,13 @@
         <v>26</v>
       </c>
       <c r="D327" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E327" t="n">
-        <v>7.33</v>
+        <v>-7.14</v>
       </c>
       <c r="F327" t="n">
-        <v>-7.33</v>
+        <v>7.14</v>
       </c>
       <c r="G327" t="s">
         <v>15</v>
@@ -8409,13 +8409,13 @@
         <v>26</v>
       </c>
       <c r="D328" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E328" t="n">
-        <v>-2.69</v>
+        <v>-1.21</v>
       </c>
       <c r="F328" t="n">
-        <v>2.69</v>
+        <v>1.21</v>
       </c>
       <c r="G328" t="s">
         <v>15</v>
@@ -8432,13 +8432,13 @@
         <v>26</v>
       </c>
       <c r="D329" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E329" t="n">
-        <v>6.99</v>
+        <v>4.59</v>
       </c>
       <c r="F329" t="n">
-        <v>-6.99</v>
+        <v>-4.59</v>
       </c>
       <c r="G329" t="s">
         <v>15</v>
@@ -8455,13 +8455,13 @@
         <v>26</v>
       </c>
       <c r="D330" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E330" t="n">
-        <v>0.91</v>
+        <v>7.33</v>
       </c>
       <c r="F330" t="n">
-        <v>-0.91</v>
+        <v>-7.33</v>
       </c>
       <c r="G330" t="s">
         <v>15</v>
@@ -8478,13 +8478,13 @@
         <v>26</v>
       </c>
       <c r="D331" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E331" t="n">
-        <v>2.84</v>
+        <v>-2.69</v>
       </c>
       <c r="F331" t="n">
-        <v>-2.84</v>
+        <v>2.69</v>
       </c>
       <c r="G331" t="s">
         <v>15</v>
@@ -8501,13 +8501,13 @@
         <v>26</v>
       </c>
       <c r="D332" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E332" t="n">
-        <v>6.18</v>
+        <v>6.99</v>
       </c>
       <c r="F332" t="n">
-        <v>-6.18</v>
+        <v>-6.99</v>
       </c>
       <c r="G332" t="s">
         <v>15</v>
@@ -8524,13 +8524,13 @@
         <v>26</v>
       </c>
       <c r="D333" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E333" t="n">
-        <v>3.79</v>
+        <v>0.91</v>
       </c>
       <c r="F333" t="n">
-        <v>-3.79</v>
+        <v>-0.91</v>
       </c>
       <c r="G333" t="s">
         <v>15</v>
@@ -8547,13 +8547,13 @@
         <v>26</v>
       </c>
       <c r="D334" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E334" t="n">
-        <v>1.81</v>
+        <v>2.84</v>
       </c>
       <c r="F334" t="n">
-        <v>-1.81</v>
+        <v>-2.84</v>
       </c>
       <c r="G334" t="s">
         <v>15</v>
@@ -8570,13 +8570,13 @@
         <v>26</v>
       </c>
       <c r="D335" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E335" t="n">
-        <v>0.69</v>
+        <v>6.18</v>
       </c>
       <c r="F335" t="n">
-        <v>-0.69</v>
+        <v>-6.18</v>
       </c>
       <c r="G335" t="s">
         <v>15</v>
@@ -8593,13 +8593,13 @@
         <v>26</v>
       </c>
       <c r="D336" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E336" t="n">
-        <v>-3.44</v>
+        <v>3.79</v>
       </c>
       <c r="F336" t="n">
-        <v>3.44</v>
+        <v>-3.79</v>
       </c>
       <c r="G336" t="s">
         <v>15</v>
@@ -8616,13 +8616,13 @@
         <v>26</v>
       </c>
       <c r="D337" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E337" t="n">
-        <v>-1.29</v>
+        <v>1.81</v>
       </c>
       <c r="F337" t="n">
-        <v>1.29</v>
+        <v>-1.81</v>
       </c>
       <c r="G337" t="s">
         <v>15</v>
@@ -8639,13 +8639,13 @@
         <v>26</v>
       </c>
       <c r="D338" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E338" t="n">
-        <v>6.3</v>
+        <v>0.69</v>
       </c>
       <c r="F338" t="n">
-        <v>-6.3</v>
+        <v>-0.69</v>
       </c>
       <c r="G338" t="s">
         <v>15</v>
@@ -8662,13 +8662,13 @@
         <v>26</v>
       </c>
       <c r="D339" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E339" t="n">
-        <v>4.48</v>
+        <v>-3.44</v>
       </c>
       <c r="F339" t="n">
-        <v>-4.48</v>
+        <v>3.44</v>
       </c>
       <c r="G339" t="s">
         <v>15</v>
@@ -8685,13 +8685,13 @@
         <v>26</v>
       </c>
       <c r="D340" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E340" t="n">
-        <v>2.23</v>
+        <v>-1.29</v>
       </c>
       <c r="F340" t="n">
-        <v>-2.23</v>
+        <v>1.29</v>
       </c>
       <c r="G340" t="s">
         <v>15</v>
@@ -8708,13 +8708,13 @@
         <v>26</v>
       </c>
       <c r="D341" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E341" t="n">
-        <v>5.49</v>
+        <v>6.3</v>
       </c>
       <c r="F341" t="n">
-        <v>-5.49</v>
+        <v>-6.3</v>
       </c>
       <c r="G341" t="s">
         <v>15</v>
@@ -8731,13 +8731,13 @@
         <v>26</v>
       </c>
       <c r="D342" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E342" t="n">
-        <v>-0.22</v>
+        <v>4.48</v>
       </c>
       <c r="F342" t="n">
-        <v>0.22</v>
+        <v>-4.48</v>
       </c>
       <c r="G342" t="s">
         <v>15</v>
@@ -8754,13 +8754,13 @@
         <v>26</v>
       </c>
       <c r="D343" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E343" t="n">
-        <v>3.4</v>
+        <v>2.23</v>
       </c>
       <c r="F343" t="n">
-        <v>-3.4</v>
+        <v>-2.23</v>
       </c>
       <c r="G343" t="s">
         <v>15</v>
@@ -8777,13 +8777,13 @@
         <v>26</v>
       </c>
       <c r="D344" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E344" t="n">
-        <v>7.35</v>
+        <v>5.49</v>
       </c>
       <c r="F344" t="n">
-        <v>-7.35</v>
+        <v>-5.49</v>
       </c>
       <c r="G344" t="s">
         <v>15</v>
@@ -8800,13 +8800,13 @@
         <v>26</v>
       </c>
       <c r="D345" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E345" t="n">
-        <v>0.45</v>
+        <v>-0.22</v>
       </c>
       <c r="F345" t="n">
-        <v>-0.45</v>
+        <v>0.22</v>
       </c>
       <c r="G345" t="s">
         <v>15</v>
@@ -8823,13 +8823,13 @@
         <v>26</v>
       </c>
       <c r="D346" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E346" t="n">
-        <v>1.73</v>
+        <v>3.4</v>
       </c>
       <c r="F346" t="n">
-        <v>-1.73</v>
+        <v>-3.4</v>
       </c>
       <c r="G346" t="s">
         <v>15</v>
@@ -8846,13 +8846,13 @@
         <v>26</v>
       </c>
       <c r="D347" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E347" t="n">
-        <v>7.28</v>
+        <v>7.35</v>
       </c>
       <c r="F347" t="n">
-        <v>-7.28</v>
+        <v>-7.35</v>
       </c>
       <c r="G347" t="s">
         <v>15</v>
@@ -8869,13 +8869,13 @@
         <v>26</v>
       </c>
       <c r="D348" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E348" t="n">
-        <v>6.22</v>
+        <v>0.45</v>
       </c>
       <c r="F348" t="n">
-        <v>-6.22</v>
+        <v>-0.45</v>
       </c>
       <c r="G348" t="s">
         <v>15</v>
@@ -8892,13 +8892,13 @@
         <v>26</v>
       </c>
       <c r="D349" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E349" t="n">
-        <v>6.23</v>
+        <v>1.73</v>
       </c>
       <c r="F349" t="n">
-        <v>-6.23</v>
+        <v>-1.73</v>
       </c>
       <c r="G349" t="s">
         <v>15</v>
@@ -8915,13 +8915,13 @@
         <v>26</v>
       </c>
       <c r="D350" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E350" t="n">
-        <v>13.94</v>
+        <v>7.28</v>
       </c>
       <c r="F350" t="n">
-        <v>-13.94</v>
+        <v>-7.28</v>
       </c>
       <c r="G350" t="s">
         <v>15</v>
@@ -8938,13 +8938,13 @@
         <v>26</v>
       </c>
       <c r="D351" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E351" t="n">
-        <v>3.89</v>
+        <v>6.22</v>
       </c>
       <c r="F351" t="n">
-        <v>-3.89</v>
+        <v>-6.22</v>
       </c>
       <c r="G351" t="s">
         <v>15</v>
@@ -8961,13 +8961,13 @@
         <v>26</v>
       </c>
       <c r="D352" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E352" t="n">
-        <v>-0.55</v>
+        <v>6.23</v>
       </c>
       <c r="F352" t="n">
-        <v>0.55</v>
+        <v>-6.23</v>
       </c>
       <c r="G352" t="s">
         <v>15</v>
@@ -8984,13 +8984,13 @@
         <v>26</v>
       </c>
       <c r="D353" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E353" t="n">
-        <v>4.07</v>
+        <v>13.94</v>
       </c>
       <c r="F353" t="n">
-        <v>-4.07</v>
+        <v>-13.94</v>
       </c>
       <c r="G353" t="s">
         <v>15</v>
@@ -9007,13 +9007,13 @@
         <v>26</v>
       </c>
       <c r="D354" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E354" t="n">
-        <v>-0.57</v>
+        <v>3.89</v>
       </c>
       <c r="F354" t="n">
-        <v>0.57</v>
+        <v>-3.89</v>
       </c>
       <c r="G354" t="s">
         <v>15</v>
@@ -9030,13 +9030,13 @@
         <v>26</v>
       </c>
       <c r="D355" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E355" t="n">
-        <v>0.97</v>
+        <v>-0.55</v>
       </c>
       <c r="F355" t="n">
-        <v>-0.97</v>
+        <v>0.55</v>
       </c>
       <c r="G355" t="s">
         <v>15</v>
@@ -9050,16 +9050,16 @@
         <v>25</v>
       </c>
       <c r="C356" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D356" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E356" t="n">
-        <v>-1</v>
+        <v>4.07</v>
       </c>
       <c r="F356" t="n">
-        <v>1</v>
+        <v>-4.07</v>
       </c>
       <c r="G356" t="s">
         <v>15</v>
@@ -9073,16 +9073,16 @@
         <v>25</v>
       </c>
       <c r="C357" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D357" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E357" t="n">
-        <v>-1.73</v>
+        <v>-0.57</v>
       </c>
       <c r="F357" t="n">
-        <v>1.73</v>
+        <v>0.57</v>
       </c>
       <c r="G357" t="s">
         <v>15</v>
@@ -9096,16 +9096,16 @@
         <v>25</v>
       </c>
       <c r="C358" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D358" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E358" t="n">
-        <v>5.95</v>
+        <v>0.97</v>
       </c>
       <c r="F358" t="n">
-        <v>-5.95</v>
+        <v>-0.97</v>
       </c>
       <c r="G358" t="s">
         <v>15</v>
@@ -9122,13 +9122,13 @@
         <v>17</v>
       </c>
       <c r="D359" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E359" t="n">
-        <v>-1.08</v>
+        <v>-1</v>
       </c>
       <c r="F359" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="G359" t="s">
         <v>15</v>
@@ -9145,13 +9145,13 @@
         <v>17</v>
       </c>
       <c r="D360" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E360" t="n">
-        <v>5.74</v>
+        <v>-1.73</v>
       </c>
       <c r="F360" t="n">
-        <v>-5.74</v>
+        <v>1.73</v>
       </c>
       <c r="G360" t="s">
         <v>15</v>
@@ -9168,13 +9168,13 @@
         <v>17</v>
       </c>
       <c r="D361" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E361" t="n">
-        <v>-0.05</v>
+        <v>5.95</v>
       </c>
       <c r="F361" t="n">
-        <v>0.05</v>
+        <v>-5.95</v>
       </c>
       <c r="G361" t="s">
         <v>15</v>
@@ -9191,13 +9191,13 @@
         <v>17</v>
       </c>
       <c r="D362" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E362" t="n">
-        <v>-0.86</v>
+        <v>-1.08</v>
       </c>
       <c r="F362" t="n">
-        <v>0.86</v>
+        <v>1.08</v>
       </c>
       <c r="G362" t="s">
         <v>15</v>
@@ -9211,16 +9211,16 @@
         <v>25</v>
       </c>
       <c r="C363" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D363" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E363" t="n">
-        <v>1.96</v>
+        <v>5.74</v>
       </c>
       <c r="F363" t="n">
-        <v>-1.96</v>
+        <v>-5.74</v>
       </c>
       <c r="G363" t="s">
         <v>15</v>
@@ -9234,16 +9234,16 @@
         <v>25</v>
       </c>
       <c r="C364" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D364" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E364" t="n">
-        <v>-1.6</v>
+        <v>-0.05</v>
       </c>
       <c r="F364" t="n">
-        <v>1.6</v>
+        <v>0.05</v>
       </c>
       <c r="G364" t="s">
         <v>15</v>
@@ -9257,16 +9257,16 @@
         <v>25</v>
       </c>
       <c r="C365" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D365" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="E365" t="n">
-        <v>0.78</v>
+        <v>-0.86</v>
       </c>
       <c r="F365" t="n">
-        <v>-0.78</v>
+        <v>0.86</v>
       </c>
       <c r="G365" t="s">
         <v>15</v>
@@ -9283,13 +9283,13 @@
         <v>22</v>
       </c>
       <c r="D366" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E366" t="n">
-        <v>4.75</v>
+        <v>1.96</v>
       </c>
       <c r="F366" t="n">
-        <v>-4.75</v>
+        <v>-1.96</v>
       </c>
       <c r="G366" t="s">
         <v>15</v>
@@ -9306,13 +9306,13 @@
         <v>22</v>
       </c>
       <c r="D367" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E367" t="n">
-        <v>0.56</v>
+        <v>-1.6</v>
       </c>
       <c r="F367" t="n">
-        <v>-0.56</v>
+        <v>1.6</v>
       </c>
       <c r="G367" t="s">
         <v>15</v>
@@ -9329,13 +9329,13 @@
         <v>22</v>
       </c>
       <c r="D368" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E368" t="n">
-        <v>5.76</v>
+        <v>0.78</v>
       </c>
       <c r="F368" t="n">
-        <v>-5.76</v>
+        <v>-0.78</v>
       </c>
       <c r="G368" t="s">
         <v>15</v>
@@ -9352,13 +9352,13 @@
         <v>22</v>
       </c>
       <c r="D369" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E369" t="n">
-        <v>11.28</v>
+        <v>4.75</v>
       </c>
       <c r="F369" t="n">
-        <v>-11.28</v>
+        <v>-4.75</v>
       </c>
       <c r="G369" t="s">
         <v>15</v>
@@ -9375,13 +9375,13 @@
         <v>22</v>
       </c>
       <c r="D370" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E370" t="n">
-        <v>0.45</v>
+        <v>0.56</v>
       </c>
       <c r="F370" t="n">
-        <v>-0.45</v>
+        <v>-0.56</v>
       </c>
       <c r="G370" t="s">
         <v>15</v>
@@ -9398,13 +9398,13 @@
         <v>22</v>
       </c>
       <c r="D371" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E371" t="n">
-        <v>0.98</v>
+        <v>5.76</v>
       </c>
       <c r="F371" t="n">
-        <v>-0.98</v>
+        <v>-5.76</v>
       </c>
       <c r="G371" t="s">
         <v>15</v>
@@ -9421,13 +9421,13 @@
         <v>22</v>
       </c>
       <c r="D372" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E372" t="n">
-        <v>1.85</v>
+        <v>11.28</v>
       </c>
       <c r="F372" t="n">
-        <v>-1.85</v>
+        <v>-11.28</v>
       </c>
       <c r="G372" t="s">
         <v>15</v>
@@ -9444,13 +9444,13 @@
         <v>22</v>
       </c>
       <c r="D373" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E373" t="n">
-        <v>6.01</v>
+        <v>0.45</v>
       </c>
       <c r="F373" t="n">
-        <v>-6.01</v>
+        <v>-0.45</v>
       </c>
       <c r="G373" t="s">
         <v>15</v>
@@ -9467,13 +9467,13 @@
         <v>22</v>
       </c>
       <c r="D374" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E374" t="n">
-        <v>2.13</v>
+        <v>0.98</v>
       </c>
       <c r="F374" t="n">
-        <v>-2.13</v>
+        <v>-0.98</v>
       </c>
       <c r="G374" t="s">
         <v>15</v>
@@ -9490,13 +9490,13 @@
         <v>22</v>
       </c>
       <c r="D375" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E375" t="n">
-        <v>1.42</v>
+        <v>1.85</v>
       </c>
       <c r="F375" t="n">
-        <v>-1.42</v>
+        <v>-1.85</v>
       </c>
       <c r="G375" t="s">
         <v>15</v>
@@ -9513,13 +9513,13 @@
         <v>22</v>
       </c>
       <c r="D376" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E376" t="n">
-        <v>0.03</v>
+        <v>6.01</v>
       </c>
       <c r="F376" t="n">
-        <v>-0.03</v>
+        <v>-6.01</v>
       </c>
       <c r="G376" t="s">
         <v>15</v>
@@ -9536,13 +9536,13 @@
         <v>22</v>
       </c>
       <c r="D377" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E377" t="n">
-        <v>-0.45</v>
+        <v>2.13</v>
       </c>
       <c r="F377" t="n">
-        <v>0.45</v>
+        <v>-2.13</v>
       </c>
       <c r="G377" t="s">
         <v>15</v>
@@ -9556,16 +9556,16 @@
         <v>25</v>
       </c>
       <c r="C378" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D378" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E378" t="n">
-        <v>8.12</v>
+        <v>1.42</v>
       </c>
       <c r="F378" t="n">
-        <v>-8.12</v>
+        <v>-1.42</v>
       </c>
       <c r="G378" t="s">
         <v>15</v>
@@ -9579,16 +9579,16 @@
         <v>25</v>
       </c>
       <c r="C379" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D379" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E379" t="n">
-        <v>4.77</v>
+        <v>0.03</v>
       </c>
       <c r="F379" t="n">
-        <v>-4.77</v>
+        <v>-0.03</v>
       </c>
       <c r="G379" t="s">
         <v>15</v>
@@ -9602,16 +9602,16 @@
         <v>25</v>
       </c>
       <c r="C380" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D380" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E380" t="n">
-        <v>4.72</v>
+        <v>-0.45</v>
       </c>
       <c r="F380" t="n">
-        <v>-4.72</v>
+        <v>0.45</v>
       </c>
       <c r="G380" t="s">
         <v>15</v>
@@ -9628,13 +9628,13 @@
         <v>20</v>
       </c>
       <c r="D381" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E381" t="n">
-        <v>-1.69</v>
+        <v>8.12</v>
       </c>
       <c r="F381" t="n">
-        <v>1.69</v>
+        <v>-8.12</v>
       </c>
       <c r="G381" t="s">
         <v>15</v>
@@ -9651,13 +9651,13 @@
         <v>20</v>
       </c>
       <c r="D382" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E382" t="n">
-        <v>-5.59</v>
+        <v>4.77</v>
       </c>
       <c r="F382" t="n">
-        <v>5.59</v>
+        <v>-4.77</v>
       </c>
       <c r="G382" t="s">
         <v>15</v>
@@ -9674,13 +9674,13 @@
         <v>20</v>
       </c>
       <c r="D383" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E383" t="n">
-        <v>-1.57</v>
+        <v>4.72</v>
       </c>
       <c r="F383" t="n">
-        <v>1.57</v>
+        <v>-4.72</v>
       </c>
       <c r="G383" t="s">
         <v>15</v>
@@ -9697,13 +9697,13 @@
         <v>20</v>
       </c>
       <c r="D384" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E384" t="n">
-        <v>5.5</v>
+        <v>-1.69</v>
       </c>
       <c r="F384" t="n">
-        <v>-5.5</v>
+        <v>1.69</v>
       </c>
       <c r="G384" t="s">
         <v>15</v>
@@ -9720,13 +9720,13 @@
         <v>20</v>
       </c>
       <c r="D385" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E385" t="n">
-        <v>-0.02</v>
+        <v>-5.59</v>
       </c>
       <c r="F385" t="n">
-        <v>0.02</v>
+        <v>5.59</v>
       </c>
       <c r="G385" t="s">
         <v>15</v>
@@ -9743,13 +9743,13 @@
         <v>20</v>
       </c>
       <c r="D386" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E386" t="n">
-        <v>-0.52</v>
+        <v>-1.57</v>
       </c>
       <c r="F386" t="n">
-        <v>0.52</v>
+        <v>1.57</v>
       </c>
       <c r="G386" t="s">
         <v>15</v>
@@ -9763,16 +9763,16 @@
         <v>25</v>
       </c>
       <c r="C387" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D387" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E387" t="n">
-        <v>-1.35</v>
+        <v>5.5</v>
       </c>
       <c r="F387" t="n">
-        <v>1.35</v>
+        <v>-5.5</v>
       </c>
       <c r="G387" t="s">
         <v>15</v>
@@ -9786,16 +9786,16 @@
         <v>25</v>
       </c>
       <c r="C388" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D388" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E388" t="n">
-        <v>-4.11</v>
+        <v>-0.02</v>
       </c>
       <c r="F388" t="n">
-        <v>4.11</v>
+        <v>0.02</v>
       </c>
       <c r="G388" t="s">
         <v>15</v>
@@ -9809,16 +9809,16 @@
         <v>25</v>
       </c>
       <c r="C389" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D389" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E389" t="n">
-        <v>7.17</v>
+        <v>-0.52</v>
       </c>
       <c r="F389" t="n">
-        <v>-7.17</v>
+        <v>0.52</v>
       </c>
       <c r="G389" t="s">
         <v>15</v>
@@ -9835,13 +9835,13 @@
         <v>23</v>
       </c>
       <c r="D390" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E390" t="n">
-        <v>2.38</v>
+        <v>-1.35</v>
       </c>
       <c r="F390" t="n">
-        <v>-2.38</v>
+        <v>1.35</v>
       </c>
       <c r="G390" t="s">
         <v>15</v>
@@ -9858,13 +9858,13 @@
         <v>23</v>
       </c>
       <c r="D391" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E391" t="n">
-        <v>1.27</v>
+        <v>-4.11</v>
       </c>
       <c r="F391" t="n">
-        <v>-1.27</v>
+        <v>4.11</v>
       </c>
       <c r="G391" t="s">
         <v>15</v>
@@ -9878,16 +9878,16 @@
         <v>25</v>
       </c>
       <c r="C392" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D392" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E392" t="n">
-        <v>8.37</v>
+        <v>7.17</v>
       </c>
       <c r="F392" t="n">
-        <v>-8.37</v>
+        <v>-7.17</v>
       </c>
       <c r="G392" t="s">
         <v>15</v>
@@ -9901,16 +9901,16 @@
         <v>25</v>
       </c>
       <c r="C393" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D393" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E393" t="n">
-        <v>6.11</v>
+        <v>2.38</v>
       </c>
       <c r="F393" t="n">
-        <v>-6.11</v>
+        <v>-2.38</v>
       </c>
       <c r="G393" t="s">
         <v>15</v>
@@ -9924,16 +9924,16 @@
         <v>25</v>
       </c>
       <c r="C394" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D394" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E394" t="n">
-        <v>6.48</v>
+        <v>1.27</v>
       </c>
       <c r="F394" t="n">
-        <v>-6.48</v>
+        <v>-1.27</v>
       </c>
       <c r="G394" t="s">
         <v>15</v>
@@ -9950,13 +9950,13 @@
         <v>18</v>
       </c>
       <c r="D395" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E395" t="n">
-        <v>8.82</v>
+        <v>8.37</v>
       </c>
       <c r="F395" t="n">
-        <v>-8.82</v>
+        <v>-8.37</v>
       </c>
       <c r="G395" t="s">
         <v>15</v>
@@ -9970,16 +9970,16 @@
         <v>25</v>
       </c>
       <c r="C396" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D396" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E396" t="n">
-        <v>-1.33</v>
+        <v>6.11</v>
       </c>
       <c r="F396" t="n">
-        <v>1.33</v>
+        <v>-6.11</v>
       </c>
       <c r="G396" t="s">
         <v>15</v>
@@ -9993,16 +9993,16 @@
         <v>25</v>
       </c>
       <c r="C397" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D397" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E397" t="n">
-        <v>2.35</v>
+        <v>6.48</v>
       </c>
       <c r="F397" t="n">
-        <v>-2.35</v>
+        <v>-6.48</v>
       </c>
       <c r="G397" t="s">
         <v>15</v>
@@ -10016,16 +10016,16 @@
         <v>25</v>
       </c>
       <c r="C398" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D398" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E398" t="n">
-        <v>2.57</v>
+        <v>8.82</v>
       </c>
       <c r="F398" t="n">
-        <v>-2.57</v>
+        <v>-8.82</v>
       </c>
       <c r="G398" t="s">
         <v>15</v>
@@ -10042,13 +10042,13 @@
         <v>23</v>
       </c>
       <c r="D399" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E399" t="n">
-        <v>2.87</v>
+        <v>-1.33</v>
       </c>
       <c r="F399" t="n">
-        <v>-2.87</v>
+        <v>1.33</v>
       </c>
       <c r="G399" t="s">
         <v>15</v>
@@ -10062,16 +10062,16 @@
         <v>25</v>
       </c>
       <c r="C400" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D400" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="E400" t="n">
-        <v>1.34</v>
+        <v>2.35</v>
       </c>
       <c r="F400" t="n">
-        <v>-1.34</v>
+        <v>-2.35</v>
       </c>
       <c r="G400" t="s">
         <v>15</v>
@@ -10085,16 +10085,16 @@
         <v>25</v>
       </c>
       <c r="C401" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D401" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E401" t="n">
-        <v>4.02</v>
+        <v>2.57</v>
       </c>
       <c r="F401" t="n">
-        <v>-4.02</v>
+        <v>-2.57</v>
       </c>
       <c r="G401" t="s">
         <v>15</v>
@@ -10108,16 +10108,16 @@
         <v>25</v>
       </c>
       <c r="C402" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D402" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E402" t="n">
-        <v>1.01</v>
+        <v>2.87</v>
       </c>
       <c r="F402" t="n">
-        <v>-1.01</v>
+        <v>-2.87</v>
       </c>
       <c r="G402" t="s">
         <v>15</v>
@@ -10134,13 +10134,13 @@
         <v>20</v>
       </c>
       <c r="D403" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E403" t="n">
-        <v>-3.65</v>
+        <v>1.34</v>
       </c>
       <c r="F403" t="n">
-        <v>3.65</v>
+        <v>-1.34</v>
       </c>
       <c r="G403" t="s">
         <v>15</v>
@@ -10157,13 +10157,13 @@
         <v>20</v>
       </c>
       <c r="D404" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E404" t="n">
-        <v>-0.04</v>
+        <v>4.02</v>
       </c>
       <c r="F404" t="n">
-        <v>0.04</v>
+        <v>-4.02</v>
       </c>
       <c r="G404" t="s">
         <v>15</v>
@@ -10180,13 +10180,13 @@
         <v>20</v>
       </c>
       <c r="D405" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E405" t="n">
-        <v>3.94</v>
+        <v>1.01</v>
       </c>
       <c r="F405" t="n">
-        <v>-3.94</v>
+        <v>-1.01</v>
       </c>
       <c r="G405" t="s">
         <v>15</v>
@@ -10200,16 +10200,16 @@
         <v>25</v>
       </c>
       <c r="C406" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D406" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E406" t="n">
-        <v>-2.36</v>
+        <v>-3.65</v>
       </c>
       <c r="F406" t="n">
-        <v>2.36</v>
+        <v>3.65</v>
       </c>
       <c r="G406" t="s">
         <v>15</v>
@@ -10223,16 +10223,16 @@
         <v>25</v>
       </c>
       <c r="C407" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D407" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="E407" t="n">
-        <v>-1.26</v>
+        <v>-0.04</v>
       </c>
       <c r="F407" t="n">
-        <v>1.26</v>
+        <v>0.04</v>
       </c>
       <c r="G407" t="s">
         <v>15</v>
@@ -10246,16 +10246,16 @@
         <v>25</v>
       </c>
       <c r="C408" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D408" t="s">
         <v>108</v>
       </c>
       <c r="E408" t="n">
-        <v>1.73</v>
+        <v>3.94</v>
       </c>
       <c r="F408" t="n">
-        <v>-1.73</v>
+        <v>-3.94</v>
       </c>
       <c r="G408" t="s">
         <v>15</v>
@@ -10269,16 +10269,16 @@
         <v>25</v>
       </c>
       <c r="C409" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D409" t="s">
         <v>109</v>
       </c>
       <c r="E409" t="n">
-        <v>0.7</v>
+        <v>-2.36</v>
       </c>
       <c r="F409" t="n">
-        <v>-0.7</v>
+        <v>2.36</v>
       </c>
       <c r="G409" t="s">
         <v>15</v>
@@ -10292,16 +10292,16 @@
         <v>25</v>
       </c>
       <c r="C410" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D410" t="s">
         <v>110</v>
       </c>
       <c r="E410" t="n">
-        <v>-0.98</v>
+        <v>-1.26</v>
       </c>
       <c r="F410" t="n">
-        <v>0.98</v>
+        <v>1.26</v>
       </c>
       <c r="G410" t="s">
         <v>15</v>
@@ -10315,16 +10315,16 @@
         <v>25</v>
       </c>
       <c r="C411" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D411" t="s">
         <v>111</v>
       </c>
       <c r="E411" t="n">
-        <v>0.79</v>
+        <v>1.73</v>
       </c>
       <c r="F411" t="n">
-        <v>-0.79</v>
+        <v>-1.73</v>
       </c>
       <c r="G411" t="s">
         <v>15</v>
@@ -10338,16 +10338,16 @@
         <v>25</v>
       </c>
       <c r="C412" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D412" t="s">
         <v>112</v>
       </c>
       <c r="E412" t="n">
-        <v>0.28</v>
+        <v>0.7</v>
       </c>
       <c r="F412" t="n">
-        <v>-0.28</v>
+        <v>-0.7</v>
       </c>
       <c r="G412" t="s">
         <v>15</v>
@@ -10361,16 +10361,16 @@
         <v>25</v>
       </c>
       <c r="C413" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D413" t="s">
         <v>113</v>
       </c>
       <c r="E413" t="n">
-        <v>9.89</v>
+        <v>-0.98</v>
       </c>
       <c r="F413" t="n">
-        <v>-9.89</v>
+        <v>0.98</v>
       </c>
       <c r="G413" t="s">
         <v>15</v>
@@ -10384,16 +10384,16 @@
         <v>25</v>
       </c>
       <c r="C414" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D414" t="s">
         <v>114</v>
       </c>
       <c r="E414" t="n">
-        <v>6.8</v>
+        <v>0.79</v>
       </c>
       <c r="F414" t="n">
-        <v>-6.8</v>
+        <v>-0.79</v>
       </c>
       <c r="G414" t="s">
         <v>15</v>
@@ -10407,16 +10407,16 @@
         <v>25</v>
       </c>
       <c r="C415" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D415" t="s">
         <v>115</v>
       </c>
       <c r="E415" t="n">
-        <v>1.29</v>
+        <v>0.28</v>
       </c>
       <c r="F415" t="n">
-        <v>-1.29</v>
+        <v>-0.28</v>
       </c>
       <c r="G415" t="s">
         <v>15</v>
@@ -10430,16 +10430,16 @@
         <v>25</v>
       </c>
       <c r="C416" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D416" t="s">
         <v>116</v>
       </c>
       <c r="E416" t="n">
-        <v>5.95</v>
+        <v>9.89</v>
       </c>
       <c r="F416" t="n">
-        <v>-5.95</v>
+        <v>-9.89</v>
       </c>
       <c r="G416" t="s">
         <v>15</v>
@@ -10453,16 +10453,16 @@
         <v>25</v>
       </c>
       <c r="C417" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D417" t="s">
         <v>117</v>
       </c>
       <c r="E417" t="n">
-        <v>-3.46</v>
+        <v>6.8</v>
       </c>
       <c r="F417" t="n">
-        <v>3.46</v>
+        <v>-6.8</v>
       </c>
       <c r="G417" t="s">
         <v>15</v>
@@ -10476,16 +10476,16 @@
         <v>25</v>
       </c>
       <c r="C418" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D418" t="s">
         <v>118</v>
       </c>
       <c r="E418" t="n">
-        <v>-0.02</v>
+        <v>1.29</v>
       </c>
       <c r="F418" t="n">
-        <v>0.02</v>
+        <v>-1.29</v>
       </c>
       <c r="G418" t="s">
         <v>15</v>
@@ -10499,16 +10499,16 @@
         <v>25</v>
       </c>
       <c r="C419" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D419" t="s">
         <v>119</v>
       </c>
       <c r="E419" t="n">
-        <v>5.43</v>
+        <v>5.95</v>
       </c>
       <c r="F419" t="n">
-        <v>-5.43</v>
+        <v>-5.95</v>
       </c>
       <c r="G419" t="s">
         <v>15</v>
@@ -10528,10 +10528,10 @@
         <v>120</v>
       </c>
       <c r="E420" t="n">
-        <v>-4.83</v>
+        <v>-3.46</v>
       </c>
       <c r="F420" t="n">
-        <v>4.83</v>
+        <v>3.46</v>
       </c>
       <c r="G420" t="s">
         <v>15</v>
@@ -10551,10 +10551,10 @@
         <v>121</v>
       </c>
       <c r="E421" t="n">
-        <v>5.17</v>
+        <v>-0.02</v>
       </c>
       <c r="F421" t="n">
-        <v>-5.17</v>
+        <v>0.02</v>
       </c>
       <c r="G421" t="s">
         <v>15</v>
@@ -10568,16 +10568,16 @@
         <v>25</v>
       </c>
       <c r="C422" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D422" t="s">
         <v>122</v>
       </c>
       <c r="E422" t="n">
-        <v>4.2</v>
+        <v>5.43</v>
       </c>
       <c r="F422" t="n">
-        <v>-4.2</v>
+        <v>-5.43</v>
       </c>
       <c r="G422" t="s">
         <v>15</v>
@@ -10591,16 +10591,16 @@
         <v>25</v>
       </c>
       <c r="C423" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D423" t="s">
         <v>123</v>
       </c>
       <c r="E423" t="n">
-        <v>0.98</v>
+        <v>-4.83</v>
       </c>
       <c r="F423" t="n">
-        <v>-0.98</v>
+        <v>4.83</v>
       </c>
       <c r="G423" t="s">
         <v>15</v>
@@ -10614,16 +10614,16 @@
         <v>25</v>
       </c>
       <c r="C424" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D424" t="s">
         <v>124</v>
       </c>
       <c r="E424" t="n">
-        <v>3.12</v>
+        <v>5.17</v>
       </c>
       <c r="F424" t="n">
-        <v>-3.12</v>
+        <v>-5.17</v>
       </c>
       <c r="G424" t="s">
         <v>15</v>
@@ -10637,16 +10637,16 @@
         <v>25</v>
       </c>
       <c r="C425" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D425" t="s">
         <v>125</v>
       </c>
       <c r="E425" t="n">
-        <v>1.21</v>
+        <v>4.2</v>
       </c>
       <c r="F425" t="n">
-        <v>-1.21</v>
+        <v>-4.2</v>
       </c>
       <c r="G425" t="s">
         <v>15</v>
@@ -10660,16 +10660,16 @@
         <v>25</v>
       </c>
       <c r="C426" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D426" t="s">
         <v>126</v>
       </c>
       <c r="E426" t="n">
-        <v>7.93</v>
+        <v>0.98</v>
       </c>
       <c r="F426" t="n">
-        <v>-7.93</v>
+        <v>-0.98</v>
       </c>
       <c r="G426" t="s">
         <v>15</v>
@@ -10683,16 +10683,16 @@
         <v>25</v>
       </c>
       <c r="C427" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D427" t="s">
         <v>127</v>
       </c>
       <c r="E427" t="n">
-        <v>6.38</v>
+        <v>3.12</v>
       </c>
       <c r="F427" t="n">
-        <v>-6.38</v>
+        <v>-3.12</v>
       </c>
       <c r="G427" t="s">
         <v>15</v>
@@ -10706,16 +10706,16 @@
         <v>25</v>
       </c>
       <c r="C428" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D428" t="s">
         <v>128</v>
       </c>
       <c r="E428" t="n">
-        <v>2.02</v>
+        <v>1.21</v>
       </c>
       <c r="F428" t="n">
-        <v>-2.02</v>
+        <v>-1.21</v>
       </c>
       <c r="G428" t="s">
         <v>15</v>
@@ -10729,16 +10729,16 @@
         <v>25</v>
       </c>
       <c r="C429" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D429" t="s">
         <v>129</v>
       </c>
       <c r="E429" t="n">
-        <v>8.5</v>
+        <v>7.93</v>
       </c>
       <c r="F429" t="n">
-        <v>-8.5</v>
+        <v>-7.93</v>
       </c>
       <c r="G429" t="s">
         <v>15</v>
@@ -10752,16 +10752,16 @@
         <v>25</v>
       </c>
       <c r="C430" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D430" t="s">
         <v>130</v>
       </c>
       <c r="E430" t="n">
-        <v>1.52</v>
+        <v>6.38</v>
       </c>
       <c r="F430" t="n">
-        <v>-1.52</v>
+        <v>-6.38</v>
       </c>
       <c r="G430" t="s">
         <v>15</v>
@@ -10775,16 +10775,16 @@
         <v>25</v>
       </c>
       <c r="C431" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D431" t="s">
         <v>131</v>
       </c>
       <c r="E431" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="F431" t="n">
-        <v>-1.99</v>
+        <v>-2.02</v>
       </c>
       <c r="G431" t="s">
         <v>15</v>
@@ -10804,10 +10804,10 @@
         <v>132</v>
       </c>
       <c r="E432" t="n">
-        <v>1.53</v>
+        <v>8.5</v>
       </c>
       <c r="F432" t="n">
-        <v>-1.53</v>
+        <v>-8.5</v>
       </c>
       <c r="G432" t="s">
         <v>15</v>
@@ -10827,10 +10827,10 @@
         <v>133</v>
       </c>
       <c r="E433" t="n">
-        <v>13.24</v>
+        <v>1.52</v>
       </c>
       <c r="F433" t="n">
-        <v>-13.24</v>
+        <v>-1.52</v>
       </c>
       <c r="G433" t="s">
         <v>15</v>
@@ -10850,10 +10850,10 @@
         <v>134</v>
       </c>
       <c r="E434" t="n">
-        <v>6.37</v>
+        <v>1.99</v>
       </c>
       <c r="F434" t="n">
-        <v>-6.37</v>
+        <v>-1.99</v>
       </c>
       <c r="G434" t="s">
         <v>15</v>
@@ -10867,16 +10867,16 @@
         <v>25</v>
       </c>
       <c r="C435" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D435" t="s">
         <v>135</v>
       </c>
       <c r="E435" t="n">
-        <v>7.33</v>
+        <v>1.53</v>
       </c>
       <c r="F435" t="n">
-        <v>-7.33</v>
+        <v>-1.53</v>
       </c>
       <c r="G435" t="s">
         <v>15</v>
@@ -10890,16 +10890,16 @@
         <v>25</v>
       </c>
       <c r="C436" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D436" t="s">
         <v>136</v>
       </c>
       <c r="E436" t="n">
-        <v>-1.31</v>
+        <v>13.24</v>
       </c>
       <c r="F436" t="n">
-        <v>1.31</v>
+        <v>-13.24</v>
       </c>
       <c r="G436" t="s">
         <v>15</v>
@@ -10913,16 +10913,16 @@
         <v>25</v>
       </c>
       <c r="C437" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D437" t="s">
         <v>137</v>
       </c>
       <c r="E437" t="n">
-        <v>1.42</v>
+        <v>6.37</v>
       </c>
       <c r="F437" t="n">
-        <v>-1.42</v>
+        <v>-6.37</v>
       </c>
       <c r="G437" t="s">
         <v>15</v>
@@ -10936,16 +10936,16 @@
         <v>25</v>
       </c>
       <c r="C438" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D438" t="s">
         <v>138</v>
       </c>
       <c r="E438" t="n">
-        <v>0</v>
+        <v>7.33</v>
       </c>
       <c r="F438" t="n">
-        <v>0</v>
+        <v>-7.33</v>
       </c>
       <c r="G438" t="s">
         <v>15</v>
@@ -10959,16 +10959,16 @@
         <v>25</v>
       </c>
       <c r="C439" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D439" t="s">
         <v>139</v>
       </c>
       <c r="E439" t="n">
-        <v>13.84</v>
+        <v>-1.31</v>
       </c>
       <c r="F439" t="n">
-        <v>-13.84</v>
+        <v>1.31</v>
       </c>
       <c r="G439" t="s">
         <v>15</v>
@@ -10982,16 +10982,16 @@
         <v>25</v>
       </c>
       <c r="C440" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D440" t="s">
         <v>140</v>
       </c>
       <c r="E440" t="n">
-        <v>-0.97</v>
+        <v>1.42</v>
       </c>
       <c r="F440" t="n">
-        <v>0.97</v>
+        <v>-1.42</v>
       </c>
       <c r="G440" t="s">
         <v>15</v>
@@ -11005,16 +11005,16 @@
         <v>25</v>
       </c>
       <c r="C441" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D441" t="s">
         <v>141</v>
       </c>
       <c r="E441" t="n">
-        <v>7.57</v>
+        <v>0</v>
       </c>
       <c r="F441" t="n">
-        <v>-7.57</v>
+        <v>0</v>
       </c>
       <c r="G441" t="s">
         <v>15</v>
@@ -11028,16 +11028,16 @@
         <v>25</v>
       </c>
       <c r="C442" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D442" t="s">
         <v>142</v>
       </c>
       <c r="E442" t="n">
-        <v>-0.53</v>
+        <v>13.84</v>
       </c>
       <c r="F442" t="n">
-        <v>0.53</v>
+        <v>-13.84</v>
       </c>
       <c r="G442" t="s">
         <v>15</v>
@@ -11051,16 +11051,16 @@
         <v>25</v>
       </c>
       <c r="C443" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D443" t="s">
         <v>143</v>
       </c>
       <c r="E443" t="n">
-        <v>-4.91</v>
+        <v>-0.97</v>
       </c>
       <c r="F443" t="n">
-        <v>4.91</v>
+        <v>0.97</v>
       </c>
       <c r="G443" t="s">
         <v>15</v>
@@ -11074,16 +11074,16 @@
         <v>25</v>
       </c>
       <c r="C444" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D444" t="s">
         <v>144</v>
       </c>
       <c r="E444" t="n">
-        <v>0.93</v>
+        <v>7.57</v>
       </c>
       <c r="F444" t="n">
-        <v>-0.93</v>
+        <v>-7.57</v>
       </c>
       <c r="G444" t="s">
         <v>15</v>
@@ -11097,16 +11097,16 @@
         <v>25</v>
       </c>
       <c r="C445" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D445" t="s">
         <v>145</v>
       </c>
       <c r="E445" t="n">
-        <v>0.19</v>
+        <v>-0.53</v>
       </c>
       <c r="F445" t="n">
-        <v>-0.19</v>
+        <v>0.53</v>
       </c>
       <c r="G445" t="s">
         <v>15</v>
@@ -11120,16 +11120,16 @@
         <v>25</v>
       </c>
       <c r="C446" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D446" t="s">
         <v>146</v>
       </c>
       <c r="E446" t="n">
-        <v>2.37</v>
+        <v>-4.91</v>
       </c>
       <c r="F446" t="n">
-        <v>-2.37</v>
+        <v>4.91</v>
       </c>
       <c r="G446" t="s">
         <v>15</v>
@@ -11143,16 +11143,16 @@
         <v>25</v>
       </c>
       <c r="C447" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D447" t="s">
         <v>147</v>
       </c>
       <c r="E447" t="n">
-        <v>6.83</v>
+        <v>0.93</v>
       </c>
       <c r="F447" t="n">
-        <v>-6.83</v>
+        <v>-0.93</v>
       </c>
       <c r="G447" t="s">
         <v>15</v>
@@ -11166,16 +11166,16 @@
         <v>25</v>
       </c>
       <c r="C448" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D448" t="s">
         <v>148</v>
       </c>
       <c r="E448" t="n">
-        <v>8.6</v>
+        <v>0.19</v>
       </c>
       <c r="F448" t="n">
-        <v>-8.6</v>
+        <v>-0.19</v>
       </c>
       <c r="G448" t="s">
         <v>15</v>
@@ -11189,16 +11189,16 @@
         <v>25</v>
       </c>
       <c r="C449" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D449" t="s">
         <v>149</v>
       </c>
       <c r="E449" t="n">
-        <v>-2.25</v>
+        <v>2.37</v>
       </c>
       <c r="F449" t="n">
-        <v>2.25</v>
+        <v>-2.37</v>
       </c>
       <c r="G449" t="s">
         <v>15</v>
@@ -11212,16 +11212,16 @@
         <v>25</v>
       </c>
       <c r="C450" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D450" t="s">
         <v>150</v>
       </c>
       <c r="E450" t="n">
-        <v>-2.45</v>
+        <v>6.83</v>
       </c>
       <c r="F450" t="n">
-        <v>2.45</v>
+        <v>-6.83</v>
       </c>
       <c r="G450" t="s">
         <v>15</v>
@@ -11235,16 +11235,16 @@
         <v>25</v>
       </c>
       <c r="C451" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D451" t="s">
         <v>151</v>
       </c>
       <c r="E451" t="n">
-        <v>3.79</v>
+        <v>8.6</v>
       </c>
       <c r="F451" t="n">
-        <v>-3.79</v>
+        <v>-8.6</v>
       </c>
       <c r="G451" t="s">
         <v>15</v>
@@ -11258,16 +11258,16 @@
         <v>25</v>
       </c>
       <c r="C452" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D452" t="s">
         <v>152</v>
       </c>
       <c r="E452" t="n">
-        <v>-1.05</v>
+        <v>-2.25</v>
       </c>
       <c r="F452" t="n">
-        <v>1.05</v>
+        <v>2.25</v>
       </c>
       <c r="G452" t="s">
         <v>15</v>
@@ -11281,16 +11281,16 @@
         <v>25</v>
       </c>
       <c r="C453" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D453" t="s">
         <v>153</v>
       </c>
       <c r="E453" t="n">
-        <v>-4.7</v>
+        <v>-2.45</v>
       </c>
       <c r="F453" t="n">
-        <v>4.7</v>
+        <v>2.45</v>
       </c>
       <c r="G453" t="s">
         <v>15</v>
@@ -11304,16 +11304,16 @@
         <v>25</v>
       </c>
       <c r="C454" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D454" t="s">
         <v>154</v>
       </c>
       <c r="E454" t="n">
-        <v>-0.25</v>
+        <v>3.79</v>
       </c>
       <c r="F454" t="n">
-        <v>0.25</v>
+        <v>-3.79</v>
       </c>
       <c r="G454" t="s">
         <v>15</v>
@@ -11327,16 +11327,16 @@
         <v>25</v>
       </c>
       <c r="C455" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D455" t="s">
         <v>155</v>
       </c>
       <c r="E455" t="n">
-        <v>-0.19</v>
+        <v>-1.05</v>
       </c>
       <c r="F455" t="n">
-        <v>0.19</v>
+        <v>1.05</v>
       </c>
       <c r="G455" t="s">
         <v>15</v>
@@ -11350,16 +11350,16 @@
         <v>25</v>
       </c>
       <c r="C456" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D456" t="s">
         <v>156</v>
       </c>
       <c r="E456" t="n">
-        <v>8.14</v>
+        <v>-4.7</v>
       </c>
       <c r="F456" t="n">
-        <v>-8.14</v>
+        <v>4.7</v>
       </c>
       <c r="G456" t="s">
         <v>15</v>
@@ -11373,16 +11373,16 @@
         <v>25</v>
       </c>
       <c r="C457" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D457" t="s">
         <v>157</v>
       </c>
       <c r="E457" t="n">
-        <v>0.65</v>
+        <v>-0.25</v>
       </c>
       <c r="F457" t="n">
-        <v>-0.65</v>
+        <v>0.25</v>
       </c>
       <c r="G457" t="s">
         <v>15</v>
@@ -11396,16 +11396,16 @@
         <v>25</v>
       </c>
       <c r="C458" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D458" t="s">
         <v>158</v>
       </c>
       <c r="E458" t="n">
-        <v>1.66</v>
+        <v>-0.19</v>
       </c>
       <c r="F458" t="n">
-        <v>-1.66</v>
+        <v>0.19</v>
       </c>
       <c r="G458" t="s">
         <v>15</v>
@@ -11425,10 +11425,10 @@
         <v>159</v>
       </c>
       <c r="E459" t="n">
-        <v>3.57</v>
+        <v>8.14</v>
       </c>
       <c r="F459" t="n">
-        <v>-3.57</v>
+        <v>-8.14</v>
       </c>
       <c r="G459" t="s">
         <v>15</v>
@@ -11442,16 +11442,16 @@
         <v>25</v>
       </c>
       <c r="C460" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D460" t="s">
         <v>160</v>
       </c>
       <c r="E460" t="n">
-        <v>3.26</v>
+        <v>0.65</v>
       </c>
       <c r="F460" t="n">
-        <v>-3.26</v>
+        <v>-0.65</v>
       </c>
       <c r="G460" t="s">
         <v>15</v>
@@ -11465,16 +11465,16 @@
         <v>25</v>
       </c>
       <c r="C461" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D461" t="s">
         <v>161</v>
       </c>
       <c r="E461" t="n">
-        <v>-1.53</v>
+        <v>1.66</v>
       </c>
       <c r="F461" t="n">
-        <v>1.53</v>
+        <v>-1.66</v>
       </c>
       <c r="G461" t="s">
         <v>15</v>
@@ -11488,16 +11488,16 @@
         <v>25</v>
       </c>
       <c r="C462" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D462" t="s">
         <v>162</v>
       </c>
       <c r="E462" t="n">
-        <v>6.09</v>
+        <v>3.57</v>
       </c>
       <c r="F462" t="n">
-        <v>-6.09</v>
+        <v>-3.57</v>
       </c>
       <c r="G462" t="s">
         <v>15</v>
@@ -11511,16 +11511,16 @@
         <v>25</v>
       </c>
       <c r="C463" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D463" t="s">
         <v>163</v>
       </c>
       <c r="E463" t="n">
-        <v>-2.02</v>
+        <v>3.26</v>
       </c>
       <c r="F463" t="n">
-        <v>2.02</v>
+        <v>-3.26</v>
       </c>
       <c r="G463" t="s">
         <v>15</v>
@@ -11540,10 +11540,10 @@
         <v>164</v>
       </c>
       <c r="E464" t="n">
-        <v>7.76</v>
+        <v>-1.53</v>
       </c>
       <c r="F464" t="n">
-        <v>-7.76</v>
+        <v>1.53</v>
       </c>
       <c r="G464" t="s">
         <v>15</v>
@@ -11557,16 +11557,16 @@
         <v>25</v>
       </c>
       <c r="C465" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D465" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E465" t="n">
-        <v>-1.53</v>
+        <v>6.09</v>
       </c>
       <c r="F465" t="n">
-        <v>1.53</v>
+        <v>-6.09</v>
       </c>
       <c r="G465" t="s">
         <v>15</v>
@@ -11580,16 +11580,16 @@
         <v>25</v>
       </c>
       <c r="C466" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D466" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E466" t="n">
-        <v>4.26</v>
+        <v>-2.02</v>
       </c>
       <c r="F466" t="n">
-        <v>-4.26</v>
+        <v>2.02</v>
       </c>
       <c r="G466" t="s">
         <v>15</v>
@@ -11603,16 +11603,16 @@
         <v>25</v>
       </c>
       <c r="C467" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D467" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E467" t="n">
-        <v>4.58</v>
+        <v>7.76</v>
       </c>
       <c r="F467" t="n">
-        <v>-4.58</v>
+        <v>-7.76</v>
       </c>
       <c r="G467" t="s">
         <v>15</v>
@@ -11626,16 +11626,16 @@
         <v>25</v>
       </c>
       <c r="C468" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D468" t="s">
         <v>169</v>
       </c>
       <c r="E468" t="n">
-        <v>3.08</v>
+        <v>-1.53</v>
       </c>
       <c r="F468" t="n">
-        <v>-3.08</v>
+        <v>1.53</v>
       </c>
       <c r="G468" t="s">
         <v>15</v>
@@ -11655,10 +11655,10 @@
         <v>170</v>
       </c>
       <c r="E469" t="n">
-        <v>5.91</v>
+        <v>4.26</v>
       </c>
       <c r="F469" t="n">
-        <v>-5.91</v>
+        <v>-4.26</v>
       </c>
       <c r="G469" t="s">
         <v>15</v>
@@ -11672,16 +11672,16 @@
         <v>25</v>
       </c>
       <c r="C470" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D470" t="s">
         <v>171</v>
       </c>
       <c r="E470" t="n">
-        <v>2.24</v>
+        <v>4.58</v>
       </c>
       <c r="F470" t="n">
-        <v>-2.24</v>
+        <v>-4.58</v>
       </c>
       <c r="G470" t="s">
         <v>15</v>
@@ -11695,16 +11695,16 @@
         <v>25</v>
       </c>
       <c r="C471" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D471" t="s">
         <v>172</v>
       </c>
       <c r="E471" t="n">
-        <v>3.68</v>
+        <v>3.08</v>
       </c>
       <c r="F471" t="n">
-        <v>-3.68</v>
+        <v>-3.08</v>
       </c>
       <c r="G471" t="s">
         <v>15</v>
@@ -11718,16 +11718,16 @@
         <v>25</v>
       </c>
       <c r="C472" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D472" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E472" t="n">
-        <v>-0.82</v>
+        <v>5.91</v>
       </c>
       <c r="F472" t="n">
-        <v>0.82</v>
+        <v>-5.91</v>
       </c>
       <c r="G472" t="s">
         <v>15</v>
@@ -11741,16 +11741,16 @@
         <v>25</v>
       </c>
       <c r="C473" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D473" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E473" t="n">
-        <v>-0.61</v>
+        <v>2.24</v>
       </c>
       <c r="F473" t="n">
-        <v>0.61</v>
+        <v>-2.24</v>
       </c>
       <c r="G473" t="s">
         <v>15</v>
@@ -11758,48 +11758,48 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B474" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C474" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D474" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="E474" t="n">
-        <v>1.75</v>
+        <v>3.68</v>
       </c>
       <c r="F474" t="n">
-        <v>-1.75</v>
+        <v>-3.68</v>
       </c>
       <c r="G474" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B475" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C475" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D475" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="E475" t="n">
-        <v>2.31</v>
+        <v>-0.82</v>
       </c>
       <c r="F475" t="n">
-        <v>-2.31</v>
+        <v>0.82</v>
       </c>
       <c r="G475" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="476">
@@ -11807,21 +11807,90 @@
         <v>14</v>
       </c>
       <c r="B476" t="s">
+        <v>25</v>
+      </c>
+      <c r="C476" t="s">
+        <v>24</v>
+      </c>
+      <c r="D476" t="s">
+        <v>177</v>
+      </c>
+      <c r="E476" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="F476" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G476" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>7</v>
+      </c>
+      <c r="B477" t="s">
         <v>16</v>
       </c>
-      <c r="C476" t="s">
+      <c r="C477" t="s">
         <v>26</v>
       </c>
-      <c r="D476" t="s">
+      <c r="D477" t="s">
         <v>10</v>
       </c>
-      <c r="E476" t="n">
+      <c r="E477" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F477" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="G477" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>12</v>
+      </c>
+      <c r="B478" t="s">
+        <v>16</v>
+      </c>
+      <c r="C478" t="s">
+        <v>26</v>
+      </c>
+      <c r="D478" t="s">
+        <v>10</v>
+      </c>
+      <c r="E478" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F478" t="n">
+        <v>-2.31</v>
+      </c>
+      <c r="G478" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>14</v>
+      </c>
+      <c r="B479" t="s">
+        <v>16</v>
+      </c>
+      <c r="C479" t="s">
+        <v>26</v>
+      </c>
+      <c r="D479" t="s">
+        <v>10</v>
+      </c>
+      <c r="E479" t="n">
         <v>2.75</v>
       </c>
-      <c r="F476" t="n">
+      <c r="F479" t="n">
         <v>-2.75</v>
       </c>
-      <c r="G476" t="s">
+      <c r="G479" t="s">
         <v>15</v>
       </c>
     </row>
